--- a/data/forecasts/forecast_2025_10.xlsx
+++ b/data/forecasts/forecast_2025_10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.422817911891712</v>
+        <v>0.9960512496585898</v>
       </c>
       <c r="G2" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H2" t="n">
-        <v>1.431843072053231</v>
+        <v>1.002369361050158</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002773201918104065</v>
+        <v>0.0006148820710988507</v>
       </c>
       <c r="G3" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002790792778650545</v>
+        <v>0.0006187823658067908</v>
       </c>
     </row>
     <row r="4">
@@ -566,13 +566,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1.475414995388021</v>
+        <v>1.000449305490301</v>
       </c>
       <c r="G4" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H4" t="n">
-        <v>1.484773787210075</v>
+        <v>1.006795314449048</v>
       </c>
     </row>
     <row r="5">
@@ -598,13 +598,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2.292025399866088</v>
+        <v>4.059475375271776</v>
       </c>
       <c r="G5" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H5" t="n">
-        <v>2.353596909570652</v>
+        <v>4.168526534774016</v>
       </c>
     </row>
     <row r="6">
@@ -630,13 +630,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1.184996824914468</v>
+        <v>1.888249958058365</v>
       </c>
       <c r="G6" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H6" t="n">
-        <v>1.216829824456864</v>
+        <v>1.938974701607902</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1.422794817743875</v>
+        <v>0.9978681375329939</v>
       </c>
       <c r="G7" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H7" t="n">
-        <v>1.416916192087047</v>
+        <v>0.9937452006468905</v>
       </c>
     </row>
     <row r="8">
@@ -694,13 +694,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1.163077291763882</v>
+        <v>1.010126585921686</v>
       </c>
       <c r="G8" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H8" t="n">
-        <v>1.158271752748018</v>
+        <v>1.00595300025031</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008262028125469539</v>
+        <v>0.001117516167808437</v>
       </c>
       <c r="G9" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008227891530431304</v>
+        <v>0.001112898875747719</v>
       </c>
     </row>
     <row r="10">
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0004945788052603485</v>
+        <v>0.002523529427690873</v>
       </c>
       <c r="G10" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0004925353316563771</v>
+        <v>0.002513102847094447</v>
       </c>
     </row>
     <row r="11">
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01060587327186766</v>
+        <v>0.0005489361771417706</v>
       </c>
       <c r="G11" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0105620525058995</v>
+        <v>0.0005466681127275188</v>
       </c>
     </row>
     <row r="12">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00241937038981416</v>
+        <v>-0.001647150740377813</v>
       </c>
       <c r="G12" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.002409374167822373</v>
+        <v>-0.001640345133214861</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008396530486320731</v>
+        <v>0.001104203423953492</v>
       </c>
       <c r="G13" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008361838161798847</v>
+        <v>0.001099641136758277</v>
       </c>
     </row>
     <row r="14">
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0001767718049409377</v>
+        <v>0.001165967901659354</v>
       </c>
       <c r="G14" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001760414288846224</v>
+        <v>0.001161150419379933</v>
       </c>
     </row>
     <row r="15">
@@ -918,13 +918,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8490724617282703</v>
+        <v>1.05721528579779</v>
       </c>
       <c r="G15" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8455643106612479</v>
+        <v>1.052847141616792</v>
       </c>
     </row>
     <row r="16">
@@ -950,13 +950,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9700199694180145</v>
+        <v>2.96766496721053</v>
       </c>
       <c r="G16" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9660120940668104</v>
+        <v>2.955403331731158</v>
       </c>
     </row>
     <row r="17">
@@ -982,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1.500522117321958</v>
+        <v>1.000820509838251</v>
       </c>
       <c r="G17" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H17" t="n">
-        <v>1.494322342268297</v>
+        <v>0.9966853745020504</v>
       </c>
     </row>
     <row r="18">
@@ -1014,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.001483027622174265</v>
+        <v>0.002687870089630885</v>
       </c>
       <c r="G18" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.001476900129916933</v>
+        <v>0.00267676449529355</v>
       </c>
     </row>
     <row r="19">
@@ -1046,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006970517142362092</v>
+        <v>0.002375455450234732</v>
       </c>
       <c r="G19" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006941716741627271</v>
+        <v>0.0023656406735837</v>
       </c>
     </row>
     <row r="20">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>1.24834747836204</v>
+        <v>3.945718942372252</v>
       </c>
       <c r="G20" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H20" t="n">
-        <v>1.243189624662114</v>
+        <v>3.929416237077019</v>
       </c>
     </row>
     <row r="21">
@@ -1110,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1.406044590889667</v>
+        <v>1.000820509838251</v>
       </c>
       <c r="G21" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H21" t="n">
-        <v>1.40023517290222</v>
+        <v>0.9966853745020504</v>
       </c>
     </row>
     <row r="22">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0001155089866455417</v>
+        <v>0.0005929465163284833</v>
       </c>
       <c r="G22" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H22" t="n">
-        <v>0.000115031732944572</v>
+        <v>0.0005904966124066073</v>
       </c>
     </row>
     <row r="23">
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009190278375435132</v>
+        <v>-0.009993467809665695</v>
       </c>
       <c r="G23" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009186375624470541</v>
+        <v>-0.009989223975633635</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1206,13 @@
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9912493281084326</v>
+        <v>1.935189163929807</v>
       </c>
       <c r="G24" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9908283833760331</v>
+        <v>1.934367364951837</v>
       </c>
     </row>
     <row r="25">
@@ -1238,13 +1238,13 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9810350628199633</v>
+        <v>1.017120313083713</v>
       </c>
       <c r="G25" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9806184556856298</v>
+        <v>1.016688381958144</v>
       </c>
     </row>
     <row r="26">
@@ -1270,13 +1270,13 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>3.363691262168657</v>
+        <v>4.160310961604605</v>
       </c>
       <c r="G26" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H26" t="n">
-        <v>3.362262834347243</v>
+        <v>4.158544240624553</v>
       </c>
     </row>
     <row r="27">
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0001862487758550816</v>
+        <v>0.001108175366666161</v>
       </c>
       <c r="G27" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0001861696833009795</v>
+        <v>0.001107704768028719</v>
       </c>
     </row>
     <row r="28">
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.118857047124377</v>
+        <v>0.003643785902060565</v>
       </c>
       <c r="G28" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1188065731956924</v>
+        <v>0.003642238529025376</v>
       </c>
     </row>
     <row r="29">
@@ -1366,13 +1366,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1.077591201806593</v>
+        <v>1.033608830949253</v>
       </c>
       <c r="G29" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H29" t="n">
-        <v>1.077133591065059</v>
+        <v>1.033169897796501</v>
       </c>
     </row>
     <row r="30">
@@ -1398,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01993564301647914</v>
+        <v>0.001424936429126735</v>
       </c>
       <c r="G30" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01992717713037277</v>
+        <v>0.001424331314483188</v>
       </c>
     </row>
     <row r="31">
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003473927847658539</v>
+        <v>0.0004620679459252644</v>
       </c>
       <c r="G31" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H31" t="n">
-        <v>0.003472452606680572</v>
+        <v>0.0004618717237818213</v>
       </c>
     </row>
     <row r="32">
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.008594854399271382</v>
+        <v>0.001046414454328932</v>
       </c>
       <c r="G32" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H32" t="n">
-        <v>0.008591204501528683</v>
+        <v>0.001045970083129915</v>
       </c>
     </row>
     <row r="33">
@@ -1494,13 +1494,13 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1.455736503211855</v>
+        <v>1.004572513043053</v>
       </c>
       <c r="G33" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H33" t="n">
-        <v>1.455118308984215</v>
+        <v>1.004145910476284</v>
       </c>
     </row>
     <row r="34">
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002592827296184192</v>
+        <v>-0.0005158846123987577</v>
       </c>
       <c r="G34" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002591726224071051</v>
+        <v>-0.0005156655364266916</v>
       </c>
     </row>
     <row r="35">
@@ -1558,13 +1558,13 @@
         <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>2.488258258288655</v>
+        <v>4.957441993768642</v>
       </c>
       <c r="G35" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H35" t="n">
-        <v>2.487201592546772</v>
+        <v>4.955336762486987</v>
       </c>
     </row>
     <row r="36">
@@ -1590,13 +1590,13 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>1.049078011306268</v>
+        <v>3.946840591277197</v>
       </c>
       <c r="G36" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H36" t="n">
-        <v>1.048632508999014</v>
+        <v>3.945164522795325</v>
       </c>
     </row>
     <row r="37">
@@ -1622,13 +1622,13 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9531858464641799</v>
+        <v>1.007338618218769</v>
       </c>
       <c r="G37" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9527810658003356</v>
+        <v>1.006910840995564</v>
       </c>
     </row>
     <row r="38">
@@ -1654,13 +1654,13 @@
         <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>2.503869448765994</v>
+        <v>5.034469419631631</v>
       </c>
       <c r="G38" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H38" t="n">
-        <v>2.502806153563478</v>
+        <v>5.032331477821709</v>
       </c>
     </row>
     <row r="39">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.007814504377824027</v>
+        <v>0.001046414454328932</v>
       </c>
       <c r="G39" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H39" t="n">
-        <v>0.007811185864145501</v>
+        <v>0.001045970083129915</v>
       </c>
     </row>
     <row r="40">
@@ -1718,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>1.64301512133306</v>
+        <v>1.030226974807716</v>
       </c>
       <c r="G40" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H40" t="n">
-        <v>1.642317397217677</v>
+        <v>1.029789477796697</v>
       </c>
     </row>
     <row r="41">
@@ -1750,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>1.405394585514887</v>
+        <v>1.051607846662913</v>
       </c>
       <c r="G41" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H41" t="n">
-        <v>1.404797769526275</v>
+        <v>1.051161270033754</v>
       </c>
     </row>
     <row r="42">
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.009610865643279185</v>
+        <v>-0.001241475051977503</v>
       </c>
       <c r="G42" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H42" t="n">
-        <v>0.009606784285389079</v>
+        <v>-0.001240947846189094</v>
       </c>
     </row>
     <row r="43">
@@ -1814,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8641226255847007</v>
+        <v>1.052663435389871</v>
       </c>
       <c r="G43" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H43" t="n">
-        <v>0.863755666579461</v>
+        <v>1.052216410493559</v>
       </c>
     </row>
     <row r="44">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.007939488274307406</v>
+        <v>-0.0003718682219455533</v>
       </c>
       <c r="G44" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H44" t="n">
-        <v>0.007936116684867446</v>
+        <v>-0.0003717103040890302</v>
       </c>
     </row>
     <row r="45">
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00247794089577206</v>
+        <v>0.002647906573535427</v>
       </c>
       <c r="G45" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002476888611409595</v>
+        <v>0.002646782111412317</v>
       </c>
     </row>
     <row r="46">
@@ -1910,13 +1910,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1.457210713983253</v>
+        <v>1.004572513043053</v>
       </c>
       <c r="G46" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H46" t="n">
-        <v>1.456591893716088</v>
+        <v>1.004145910476284</v>
       </c>
     </row>
     <row r="47">
@@ -1942,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002592827296184192</v>
+        <v>-0.0005158846123987577</v>
       </c>
       <c r="G47" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H47" t="n">
-        <v>0.002591726224071051</v>
+        <v>-0.0005156655364266916</v>
       </c>
     </row>
     <row r="48">
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.05668338746512649</v>
+        <v>0.2290902322814949</v>
       </c>
       <c r="G48" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.05665931625247454</v>
+        <v>0.2289929466402455</v>
       </c>
     </row>
     <row r="49">
@@ -2006,13 +2006,13 @@
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>1.590645663818601</v>
+        <v>2.816734185677549</v>
       </c>
       <c r="G49" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H49" t="n">
-        <v>1.589970178958928</v>
+        <v>2.815538029085652</v>
       </c>
     </row>
     <row r="50">
@@ -2038,13 +2038,13 @@
         <v>9</v>
       </c>
       <c r="F50" t="n">
-        <v>15.88067594538174</v>
+        <v>9.021851144904486</v>
       </c>
       <c r="G50" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H50" t="n">
-        <v>15.87393204483464</v>
+        <v>9.018019918382308</v>
       </c>
     </row>
     <row r="51">
@@ -2070,13 +2070,13 @@
         <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>1.529635262722203</v>
+        <v>3.939742881104158</v>
       </c>
       <c r="G51" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H51" t="n">
-        <v>1.528985686588251</v>
+        <v>3.938069826741565</v>
       </c>
     </row>
     <row r="52">
@@ -2102,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.01202228630946062</v>
+        <v>-0.005290256182574394</v>
       </c>
       <c r="G52" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.01201718091574194</v>
+        <v>-0.005288009618153162</v>
       </c>
     </row>
     <row r="53">
@@ -2134,13 +2134,13 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>1.069109507782117</v>
+        <v>3.988089518091318</v>
       </c>
       <c r="G53" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H53" t="n">
-        <v>1.068655498883551</v>
+        <v>3.986395932807198</v>
       </c>
     </row>
     <row r="54">
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.0002551017917863883</v>
+        <v>0.001108175366666161</v>
       </c>
       <c r="G54" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.0002549934600554775</v>
+        <v>0.001107704768028719</v>
       </c>
     </row>
     <row r="55">
@@ -2198,13 +2198,13 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>1.308619388203541</v>
+        <v>2.305379183095162</v>
       </c>
       <c r="G55" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H55" t="n">
-        <v>1.308063668847613</v>
+        <v>2.304400178927604</v>
       </c>
     </row>
     <row r="56">
@@ -2230,13 +2230,13 @@
         <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>1.774900965156239</v>
+        <v>11.70530279745215</v>
       </c>
       <c r="G56" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H56" t="n">
-        <v>1.774147234292946</v>
+        <v>11.70033201420518</v>
       </c>
     </row>
     <row r="57">
@@ -2262,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.07125407122149434</v>
+        <v>-0.0574829992617092</v>
       </c>
       <c r="G57" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.07122381241062589</v>
+        <v>-0.05745858848527224</v>
       </c>
     </row>
     <row r="58">
@@ -2294,13 +2294,13 @@
         <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>1.149688258701651</v>
+        <v>1.884603996169873</v>
       </c>
       <c r="G58" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H58" t="n">
-        <v>1.149200031166278</v>
+        <v>1.883803678729698</v>
       </c>
     </row>
     <row r="59">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01552525195378304</v>
+        <v>-0.002655758023277039</v>
       </c>
       <c r="G59" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01551865898787244</v>
+        <v>-0.002654630226951003</v>
       </c>
     </row>
     <row r="60">
@@ -2358,13 +2358,13 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1.183166822348608</v>
+        <v>0.941811734988395</v>
       </c>
       <c r="G60" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H60" t="n">
-        <v>1.182664377779624</v>
+        <v>0.9414117844638262</v>
       </c>
     </row>
     <row r="61">
@@ -2390,13 +2390,13 @@
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>1.039309965003998</v>
+        <v>1.981424441429263</v>
       </c>
       <c r="G61" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H61" t="n">
-        <v>1.038868610803099</v>
+        <v>1.980583008141374</v>
       </c>
     </row>
     <row r="62">
@@ -2422,13 +2422,13 @@
         <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>2.205158815160349</v>
+        <v>3.021003069101196</v>
       </c>
       <c r="G62" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H62" t="n">
-        <v>2.204222370654387</v>
+        <v>3.019720167521906</v>
       </c>
     </row>
     <row r="63">
@@ -2454,13 +2454,13 @@
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>1.150800162320989</v>
+        <v>2.106087228951149</v>
       </c>
       <c r="G63" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H63" t="n">
-        <v>1.150311462603736</v>
+        <v>2.105192856264216</v>
       </c>
     </row>
     <row r="64">
@@ -2486,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2007029996071445</v>
+        <v>0.4275336564448907</v>
       </c>
       <c r="G64" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.2006177689108245</v>
+        <v>0.4273520996604362</v>
       </c>
     </row>
     <row r="65">
@@ -2518,13 +2518,13 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>6.892358038375759</v>
+        <v>6.890977025309525</v>
       </c>
       <c r="G65" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H65" t="n">
-        <v>6.889431124099205</v>
+        <v>6.888050697495084</v>
       </c>
     </row>
     <row r="66">
@@ -2550,13 +2550,13 @@
         <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>1.531556376592223</v>
+        <v>6.125072921039433</v>
       </c>
       <c r="G66" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H66" t="n">
-        <v>1.530905984636519</v>
+        <v>6.122471842674422</v>
       </c>
     </row>
     <row r="67">
@@ -2582,13 +2582,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.0002551017917863883</v>
+        <v>0.001108175366666161</v>
       </c>
       <c r="G67" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.0002549934600554775</v>
+        <v>0.001107704768028719</v>
       </c>
     </row>
     <row r="68">
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.196254956748908</v>
+        <v>-0.001236253643212224</v>
       </c>
       <c r="G68" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H68" t="n">
-        <v>1.195746954162302</v>
+        <v>-0.001235728654751437</v>
       </c>
     </row>
     <row r="69">
@@ -2646,13 +2646,13 @@
         <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>1.355458377644544</v>
+        <v>7.379465819984246</v>
       </c>
       <c r="G69" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H69" t="n">
-        <v>1.354882767605902</v>
+        <v>7.376332050127601</v>
       </c>
     </row>
     <row r="70">
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.007939488274307406</v>
+        <v>0.0004898724781999584</v>
       </c>
       <c r="G70" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H70" t="n">
-        <v>0.007936116684867446</v>
+        <v>0.0004896644485616037</v>
       </c>
     </row>
     <row r="71">
@@ -2710,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1.027932533174394</v>
+        <v>1.008646956758601</v>
       </c>
       <c r="G71" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H71" t="n">
-        <v>1.027496010522795</v>
+        <v>1.008218623935306</v>
       </c>
     </row>
     <row r="72">
@@ -2742,13 +2742,13 @@
         <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>1.104509516352298</v>
+        <v>2.868769461801878</v>
       </c>
       <c r="G72" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H72" t="n">
-        <v>1.104040474457782</v>
+        <v>2.867551207868007</v>
       </c>
     </row>
     <row r="73">
@@ -2774,13 +2774,13 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>7.487916720775028</v>
+        <v>6.994820328816179</v>
       </c>
       <c r="G73" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H73" t="n">
-        <v>7.484736896072124</v>
+        <v>6.991849902821425</v>
       </c>
     </row>
     <row r="74">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0006104806172769722</v>
+        <v>-0.001095315836779639</v>
       </c>
       <c r="G74" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0006102213700898239</v>
+        <v>-0.001094850699080442</v>
       </c>
     </row>
     <row r="75">
@@ -2838,13 +2838,13 @@
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>1.255316213239324</v>
+        <v>2.02049777680674</v>
       </c>
       <c r="G75" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H75" t="n">
-        <v>1.254783129652305</v>
+        <v>2.019639750605002</v>
       </c>
     </row>
     <row r="76">
@@ -2870,13 +2870,13 @@
         <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>1.756082655949592</v>
+        <v>1.96809289318653</v>
       </c>
       <c r="G76" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H76" t="n">
-        <v>1.755336916484537</v>
+        <v>1.96725712128458</v>
       </c>
     </row>
     <row r="77">
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01350764026908424</v>
+        <v>-0.0001881163025793829</v>
       </c>
       <c r="G77" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0135019041037652</v>
+        <v>-0.0001880364169598885</v>
       </c>
     </row>
     <row r="78">
@@ -2934,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003012041506707086</v>
+        <v>0.0009793105794556601</v>
       </c>
       <c r="G78" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H78" t="n">
-        <v>0.003010762410752049</v>
+        <v>0.0009788947046418112</v>
       </c>
     </row>
     <row r="79">
@@ -2966,13 +2966,13 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>1.188596252298536</v>
+        <v>1.028100941507145</v>
       </c>
       <c r="G79" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H79" t="n">
-        <v>1.184877163472595</v>
+        <v>1.024884038613413</v>
       </c>
     </row>
     <row r="80">
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.008298620907224243</v>
+        <v>-0.00708695073893173</v>
       </c>
       <c r="G80" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H80" t="n">
-        <v>0.008272654723814958</v>
+        <v>-0.007064775842071522</v>
       </c>
     </row>
     <row r="81">
@@ -3030,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1.390921202825417</v>
+        <v>1.028444663726676</v>
       </c>
       <c r="G81" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H81" t="n">
-        <v>1.386569044139751</v>
+        <v>1.025226685334461</v>
       </c>
     </row>
     <row r="82">
@@ -3062,13 +3062,13 @@
         <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>1.62436692961472</v>
+        <v>4.98411079780109</v>
       </c>
       <c r="G82" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H82" t="n">
-        <v>1.619284324915711</v>
+        <v>4.968515636080275</v>
       </c>
     </row>
     <row r="83">
@@ -3094,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01741525141665173</v>
+        <v>0.002642729643023093</v>
       </c>
       <c r="G83" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01736075951764114</v>
+        <v>0.002634460606109724</v>
       </c>
     </row>
     <row r="84">
@@ -3126,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01129852641821365</v>
+        <v>-0.001047552044298492</v>
       </c>
       <c r="G84" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01126317360326887</v>
+        <v>-0.001044274279376209</v>
       </c>
     </row>
     <row r="85">
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0302474629939182</v>
+        <v>0.004066603292972588</v>
       </c>
       <c r="G85" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03015281941632305</v>
+        <v>0.004053878989966266</v>
       </c>
     </row>
     <row r="86">
@@ -3190,13 +3190,13 @@
         <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>1.118370519341853</v>
+        <v>1.853076281323902</v>
       </c>
       <c r="G86" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H86" t="n">
-        <v>1.11487116512994</v>
+        <v>1.847278050614223</v>
       </c>
     </row>
     <row r="87">
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.03216686219599642</v>
+        <v>0.006258556441250734</v>
       </c>
       <c r="G87" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03206621286488222</v>
+        <v>0.006238973570042651</v>
       </c>
     </row>
     <row r="88">
@@ -3254,13 +3254,13 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>1.058997491695903</v>
+        <v>1.021250236971466</v>
       </c>
       <c r="G88" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H88" t="n">
-        <v>1.055683914246496</v>
+        <v>1.018054769765958</v>
       </c>
     </row>
     <row r="89">
@@ -3286,13 +3286,13 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>1.17310863704143</v>
+        <v>0.9947604559460607</v>
       </c>
       <c r="G89" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H89" t="n">
-        <v>1.169438008587741</v>
+        <v>0.9916478746224683</v>
       </c>
     </row>
     <row r="90">
@@ -3318,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01244348484150198</v>
+        <v>-0.00111953329404009</v>
       </c>
       <c r="G90" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01240454947943913</v>
+        <v>-0.001116030301534367</v>
       </c>
     </row>
     <row r="91">
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.05108299601293029</v>
+        <v>0.06545239542036496</v>
       </c>
       <c r="G91" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.0505941925700058</v>
+        <v>0.06482609393599174</v>
       </c>
     </row>
     <row r="92">
@@ -3382,13 +3382,13 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9976108727064963</v>
+        <v>1.271610736816136</v>
       </c>
       <c r="G92" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9880649245958096</v>
+        <v>1.259442936281137</v>
       </c>
     </row>
     <row r="93">
@@ -3414,13 +3414,13 @@
         <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>1.230861723469179</v>
+        <v>1.834352658992551</v>
       </c>
       <c r="G93" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H93" t="n">
-        <v>1.219083842468554</v>
+        <v>1.816800088367557</v>
       </c>
     </row>
     <row r="94">
@@ -3446,13 +3446,13 @@
         <v>5</v>
       </c>
       <c r="F94" t="n">
-        <v>4.683603973193271</v>
+        <v>4.994242189648055</v>
       </c>
       <c r="G94" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H94" t="n">
-        <v>4.638787460340105</v>
+        <v>4.946453238967074</v>
       </c>
     </row>
     <row r="95">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01159986129944119</v>
+        <v>0.002601822213947231</v>
       </c>
       <c r="G95" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0114888644397586</v>
+        <v>0.002576925873573363</v>
       </c>
     </row>
     <row r="96">
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>1.182703319273424</v>
+        <v>0.9425901232504641</v>
       </c>
       <c r="G96" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H96" t="n">
-        <v>1.171386256854596</v>
+        <v>0.9335706581941305</v>
       </c>
     </row>
     <row r="97">
@@ -3542,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01696111779813417</v>
+        <v>0.003935844321597261</v>
       </c>
       <c r="G97" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01679882009786856</v>
+        <v>0.003898182978188104</v>
       </c>
     </row>
     <row r="98">
@@ -3574,13 +3574,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001544476645205878</v>
+        <v>-0.004506101649631223</v>
       </c>
       <c r="G98" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H98" t="n">
-        <v>0.001529697842852508</v>
+        <v>-0.004462983622647254</v>
       </c>
     </row>
     <row r="99">
@@ -3606,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01435313768983535</v>
+        <v>0.00132332065090239</v>
       </c>
       <c r="G99" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H99" t="n">
-        <v>0.01421579525365982</v>
+        <v>0.001310658048065031</v>
       </c>
     </row>
     <row r="100">
@@ -3638,13 +3638,13 @@
         <v>2</v>
       </c>
       <c r="F100" t="n">
-        <v>1.135076165531885</v>
+        <v>1.947689857942616</v>
       </c>
       <c r="G100" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H100" t="n">
-        <v>1.124214838260613</v>
+        <v>1.929052785284025</v>
       </c>
     </row>
     <row r="101">
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.005756837429080096</v>
+        <v>0.001165475825053691</v>
       </c>
       <c r="G101" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H101" t="n">
-        <v>0.005701751350045525</v>
+        <v>0.001154323609240286</v>
       </c>
     </row>
     <row r="102">
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.0003076325065228289</v>
+        <v>0.001227244083043203</v>
       </c>
       <c r="G102" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.000304688829759904</v>
+        <v>0.001215500818553619</v>
       </c>
     </row>
     <row r="103">
@@ -3734,13 +3734,13 @@
         <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>1.173063478933424</v>
+        <v>2.087182142815295</v>
       </c>
       <c r="G103" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H103" t="n">
-        <v>1.166829685059579</v>
+        <v>2.076090617514966</v>
       </c>
     </row>
     <row r="104">
@@ -3766,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>1.237153673586262</v>
+        <v>0.988205361391377</v>
       </c>
       <c r="G104" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H104" t="n">
-        <v>1.230579297067082</v>
+        <v>0.9829539247568108</v>
       </c>
     </row>
     <row r="105">
@@ -3798,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.02401673916116291</v>
+        <v>-0.0005986650191128433</v>
       </c>
       <c r="G105" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H105" t="n">
-        <v>0.02388911145461397</v>
+        <v>-0.0005954836445362311</v>
       </c>
     </row>
     <row r="106">
@@ -3830,13 +3830,13 @@
         <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>2.278772514355117</v>
+        <v>2.994127019352315</v>
       </c>
       <c r="G106" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H106" t="n">
-        <v>2.266662855845596</v>
+        <v>2.978215884954265</v>
       </c>
     </row>
     <row r="107">
@@ -3862,13 +3862,13 @@
         <v>6</v>
       </c>
       <c r="F107" t="n">
-        <v>8.043660462794957</v>
+        <v>5.945767625336043</v>
       </c>
       <c r="G107" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H107" t="n">
-        <v>8.000915528512412</v>
+        <v>5.914171134213647</v>
       </c>
     </row>
     <row r="108">
@@ -3894,13 +3894,13 @@
         <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>1.080313432780418</v>
+        <v>1.839678796433435</v>
       </c>
       <c r="G108" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H108" t="n">
-        <v>1.074572523289976</v>
+        <v>1.829902532303656</v>
       </c>
     </row>
     <row r="109">
@@ -3926,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.01170423200428576</v>
+        <v>0.001806653264558749</v>
       </c>
       <c r="G109" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.01164203437297537</v>
+        <v>0.001797052501893281</v>
       </c>
     </row>
     <row r="110">
@@ -3958,13 +3958,13 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>1.288348770323423</v>
+        <v>1.013354944032673</v>
       </c>
       <c r="G110" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H110" t="n">
-        <v>1.281502337188261</v>
+        <v>1.007969859631371</v>
       </c>
     </row>
     <row r="111">
@@ -3990,13 +3990,13 @@
         <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>13.13645364724589</v>
+        <v>7.794430892449668</v>
       </c>
       <c r="G111" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H111" t="n">
-        <v>13.06664502585337</v>
+        <v>7.753010392689807</v>
       </c>
     </row>
     <row r="112">
@@ -4022,13 +4022,13 @@
         <v>4</v>
       </c>
       <c r="F112" t="n">
-        <v>2.870648636144486</v>
+        <v>4.088820922507974</v>
       </c>
       <c r="G112" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H112" t="n">
-        <v>2.855393680037396</v>
+        <v>4.067092459150513</v>
       </c>
     </row>
     <row r="113">
@@ -4054,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.03831672146820862</v>
+        <v>0.03523713415272478</v>
       </c>
       <c r="G113" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.03811310201551581</v>
+        <v>0.03504987998024569</v>
       </c>
     </row>
     <row r="114">
@@ -4086,13 +4086,13 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>9.970452363290626</v>
+        <v>6.788716189486363</v>
       </c>
       <c r="G114" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H114" t="n">
-        <v>9.917468235851709</v>
+        <v>6.75264017301045</v>
       </c>
     </row>
     <row r="115">
@@ -4118,13 +4118,13 @@
         <v>6</v>
       </c>
       <c r="F115" t="n">
-        <v>4.357608052326625</v>
+        <v>5.743755549332672</v>
       </c>
       <c r="G115" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H115" t="n">
-        <v>4.334451223332246</v>
+        <v>5.713232573552324</v>
       </c>
     </row>
     <row r="116">
@@ -4150,13 +4150,13 @@
         <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>2.287507409582441</v>
+        <v>3.043056869175779</v>
       </c>
       <c r="G116" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H116" t="n">
-        <v>2.275351332837817</v>
+        <v>3.026885715943664</v>
       </c>
     </row>
     <row r="117">
@@ -4182,13 +4182,13 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>1.189188361834842</v>
+        <v>1.069253853954766</v>
       </c>
       <c r="G117" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H117" t="n">
-        <v>1.182868878483784</v>
+        <v>1.063571716334704</v>
       </c>
     </row>
     <row r="118">
@@ -4214,13 +4214,13 @@
         <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>5.936683270030177</v>
+        <v>5.027882085058176</v>
       </c>
       <c r="G118" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H118" t="n">
-        <v>5.905135054213823</v>
+        <v>5.00116334297548</v>
       </c>
     </row>
     <row r="119">
@@ -4246,13 +4246,13 @@
         <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>2.269587002866931</v>
+        <v>2.882312330218294</v>
       </c>
       <c r="G119" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H119" t="n">
-        <v>2.257526157219008</v>
+        <v>2.866995391903105</v>
       </c>
     </row>
     <row r="120">
@@ -4278,13 +4278,13 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>1.560570274104467</v>
+        <v>1.006207683802659</v>
       </c>
       <c r="G120" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H120" t="n">
-        <v>1.552277224675238</v>
+        <v>1.000860580761988</v>
       </c>
     </row>
     <row r="121">
@@ -4310,13 +4310,13 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.006949337103556662</v>
+        <v>0.001115017154347243</v>
       </c>
       <c r="G121" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H121" t="n">
-        <v>0.006912407529120652</v>
+        <v>0.001109091825299984</v>
       </c>
     </row>
     <row r="122">
@@ -4342,13 +4342,13 @@
         <v>2</v>
       </c>
       <c r="F122" t="n">
-        <v>1.070024075832185</v>
+        <v>1.976881171597921</v>
       </c>
       <c r="G122" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H122" t="n">
-        <v>1.064337845164724</v>
+        <v>1.966375798309826</v>
       </c>
     </row>
     <row r="123">
@@ -4374,13 +4374,13 @@
         <v>18</v>
       </c>
       <c r="F123" t="n">
-        <v>34.02979838533319</v>
+        <v>17.22082291347621</v>
       </c>
       <c r="G123" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H123" t="n">
-        <v>33.84896013359973</v>
+        <v>17.12930948533828</v>
       </c>
     </row>
     <row r="124">
@@ -4406,13 +4406,13 @@
         <v>11</v>
       </c>
       <c r="F124" t="n">
-        <v>10.4125446971753</v>
+        <v>10.61998239917842</v>
       </c>
       <c r="G124" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H124" t="n">
-        <v>10.35721124036748</v>
+        <v>10.56354659462969</v>
       </c>
     </row>
     <row r="125">
@@ -4438,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02106265750154296</v>
+        <v>-0.0009444077646778329</v>
       </c>
       <c r="G125" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H125" t="n">
-        <v>0.02095072812375737</v>
+        <v>-0.0009393890734956528</v>
       </c>
     </row>
     <row r="126">
@@ -4470,13 +4470,13 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>2.592352873133268</v>
+        <v>1.094570162614239</v>
       </c>
       <c r="G126" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H126" t="n">
-        <v>2.578576812630492</v>
+        <v>1.088753491226257</v>
       </c>
     </row>
     <row r="127">
@@ -4502,13 +4502,13 @@
         <v>11</v>
       </c>
       <c r="F127" t="n">
-        <v>23.60009704235393</v>
+        <v>10.91361522963872</v>
       </c>
       <c r="G127" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H127" t="n">
-        <v>23.47468341981191</v>
+        <v>10.85561902655014</v>
       </c>
     </row>
     <row r="128">
@@ -4534,13 +4534,13 @@
         <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>1.526756881459717</v>
+        <v>2.843644445184975</v>
       </c>
       <c r="G128" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H128" t="n">
-        <v>1.518643520277295</v>
+        <v>2.828532992445942</v>
       </c>
     </row>
     <row r="129">
@@ -4566,13 +4566,13 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>1.180887782923373</v>
+        <v>0.9382220112386542</v>
       </c>
       <c r="G129" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H129" t="n">
-        <v>1.174612409800702</v>
+        <v>0.9332361918597369</v>
       </c>
     </row>
     <row r="130">
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.005756656689481914</v>
+        <v>0.00112985190267602</v>
       </c>
       <c r="G130" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H130" t="n">
-        <v>0.005726065155563092</v>
+        <v>0.001123847740074642</v>
       </c>
     </row>
     <row r="131">
@@ -4630,13 +4630,13 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.006814401597192146</v>
+        <v>0.002938452016833806</v>
       </c>
       <c r="G131" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H131" t="n">
-        <v>0.006778189085513646</v>
+        <v>0.002922836745784892</v>
       </c>
     </row>
     <row r="132">
@@ -4662,13 +4662,13 @@
         <v>10</v>
       </c>
       <c r="F132" t="n">
-        <v>23.29631498027119</v>
+        <v>10.22986404134698</v>
       </c>
       <c r="G132" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H132" t="n">
-        <v>23.92213233987468</v>
+        <v>10.50467258977535</v>
       </c>
     </row>
     <row r="133">
@@ -4694,13 +4694,13 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>1.152167655507623</v>
+        <v>1.155749371308381</v>
       </c>
       <c r="G133" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H133" t="n">
-        <v>1.183118753164096</v>
+        <v>1.186796685895608</v>
       </c>
     </row>
     <row r="134">
@@ -4726,13 +4726,13 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>9.417342289781446</v>
+        <v>6.939434111282583</v>
       </c>
       <c r="G134" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H134" t="n">
-        <v>9.670323771670935</v>
+        <v>7.125850646959708</v>
       </c>
     </row>
     <row r="135">
@@ -4758,13 +4758,13 @@
         <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>1.305458114946462</v>
+        <v>2.83745056910811</v>
       </c>
       <c r="G135" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H135" t="n">
-        <v>1.340527109817995</v>
+        <v>2.913674032976471</v>
       </c>
     </row>
     <row r="136">
@@ -4790,13 +4790,13 @@
         <v>14</v>
       </c>
       <c r="F136" t="n">
-        <v>36.61245744361052</v>
+        <v>13.21993227948169</v>
       </c>
       <c r="G136" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H136" t="n">
-        <v>36.73936255706009</v>
+        <v>13.26575485253096</v>
       </c>
     </row>
     <row r="137">
@@ -4822,13 +4822,13 @@
         <v>5</v>
       </c>
       <c r="F137" t="n">
-        <v>5.62015372809609</v>
+        <v>5.032363924412967</v>
       </c>
       <c r="G137" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H137" t="n">
-        <v>5.639634153510487</v>
+        <v>5.049806968648136</v>
       </c>
     </row>
     <row r="138">
@@ -4854,13 +4854,13 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>1.259992833863764</v>
+        <v>1.004101801724154</v>
       </c>
       <c r="G138" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H138" t="n">
-        <v>1.264360187073348</v>
+        <v>1.007582192333251</v>
       </c>
     </row>
     <row r="139">
@@ -4886,13 +4886,13 @@
         <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>2.333337342426953</v>
+        <v>2.992979638088444</v>
       </c>
       <c r="G139" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H139" t="n">
-        <v>2.3414250934503</v>
+        <v>3.003353823462612</v>
       </c>
     </row>
     <row r="140">
@@ -4918,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5427317233869455</v>
+        <v>-0.02876185069475654</v>
       </c>
       <c r="G140" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H140" t="n">
-        <v>0.5446129254623643</v>
+        <v>-0.02886154424663186</v>
       </c>
     </row>
     <row r="141">
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1.117396962786855</v>
+        <v>-0.04488655777659637</v>
       </c>
       <c r="G141" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H141" t="n">
-        <v>1.121270054030431</v>
+        <v>-0.04504214235367025</v>
       </c>
     </row>
     <row r="142">
@@ -4982,13 +4982,13 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.042550448586038</v>
+        <v>0.003356768421614034</v>
       </c>
       <c r="G142" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H142" t="n">
-        <v>0.04269793580438323</v>
+        <v>0.003368403561867183</v>
       </c>
     </row>
     <row r="143">
@@ -5014,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.04733287131843953</v>
+        <v>0.003552962828163526</v>
       </c>
       <c r="G143" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H143" t="n">
-        <v>0.04749693524159497</v>
+        <v>0.003565278012182098</v>
       </c>
     </row>
     <row r="144">
@@ -5046,13 +5046,13 @@
         <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>2.185624493492331</v>
+        <v>3.118453016423298</v>
       </c>
       <c r="G144" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H144" t="n">
-        <v>2.1932002462189</v>
+        <v>3.129262114240506</v>
       </c>
     </row>
     <row r="145">
@@ -5078,13 +5078,13 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>1.225446470293862</v>
+        <v>1.033885892280994</v>
       </c>
       <c r="G145" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H145" t="n">
-        <v>1.22969407982891</v>
+        <v>1.037469519702232</v>
       </c>
     </row>
     <row r="146">
@@ -5110,13 +5110,13 @@
         <v>8</v>
       </c>
       <c r="F146" t="n">
-        <v>12.41366103914874</v>
+        <v>8.181568917097296</v>
       </c>
       <c r="G146" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H146" t="n">
-        <v>12.45668893655016</v>
+        <v>8.209927650821161</v>
       </c>
     </row>
     <row r="147">
@@ -5142,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0115314499909913</v>
+        <v>0.002377280655090517</v>
       </c>
       <c r="G147" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H147" t="n">
-        <v>0.01157141999222923</v>
+        <v>0.002385520721240143</v>
       </c>
     </row>
     <row r="148">
@@ -5174,13 +5174,13 @@
         <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>2.178929629022785</v>
+        <v>3.076050365914018</v>
       </c>
       <c r="G148" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H148" t="n">
-        <v>2.186482176190525</v>
+        <v>3.086712488806592</v>
       </c>
     </row>
     <row r="149">
@@ -5206,13 +5206,13 @@
         <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>4.361927521001917</v>
+        <v>3.053875986452737</v>
       </c>
       <c r="G149" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H149" t="n">
-        <v>4.377046716640836</v>
+        <v>3.064461249108723</v>
       </c>
     </row>
     <row r="150">
@@ -5238,13 +5238,13 @@
         <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>1.226222351874313</v>
+        <v>1.958156862873421</v>
       </c>
       <c r="G150" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H150" t="n">
-        <v>1.230472650749189</v>
+        <v>1.96494417342797</v>
       </c>
     </row>
     <row r="151">
@@ -5270,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.01107339063721392</v>
+        <v>-0.0006096119887159335</v>
       </c>
       <c r="G151" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H151" t="n">
-        <v>0.01111177292546243</v>
+        <v>-0.0006117250093649124</v>
       </c>
     </row>
     <row r="152">
@@ -5302,13 +5302,13 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.005952688819619985</v>
+        <v>-0.000394940337901</v>
       </c>
       <c r="G152" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H152" t="n">
-        <v>0.005973321869208293</v>
+        <v>-0.0003963092694583621</v>
       </c>
     </row>
     <row r="153">
@@ -5334,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.01166889038565511</v>
+        <v>-0.01028876606465534</v>
       </c>
       <c r="G153" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.01170933677908563</v>
+        <v>-0.01032442870835257</v>
       </c>
     </row>
     <row r="154">
@@ -5366,13 +5366,13 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.02962526067781016</v>
+        <v>0.00131205856252254</v>
       </c>
       <c r="G154" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.02972794695810372</v>
+        <v>0.001316606384557863</v>
       </c>
     </row>
     <row r="155">
@@ -5398,13 +5398,13 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.01833243342829224</v>
+        <v>-0.0005235564855449259</v>
       </c>
       <c r="G155" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H155" t="n">
-        <v>0.01839597681506455</v>
+        <v>-0.0005253712229276233</v>
       </c>
     </row>
     <row r="156">
@@ -5430,13 +5430,13 @@
         <v>2</v>
       </c>
       <c r="F156" t="n">
-        <v>1.331007019867899</v>
+        <v>1.965724122276002</v>
       </c>
       <c r="G156" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H156" t="n">
-        <v>1.335620520535497</v>
+        <v>1.972537662261189</v>
       </c>
     </row>
     <row r="157">
@@ -5462,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.02157387664965349</v>
+        <v>0.001324395823036421</v>
       </c>
       <c r="G157" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H157" t="n">
-        <v>0.02164865543957733</v>
+        <v>0.001328986408151704</v>
       </c>
     </row>
     <row r="158">
@@ -5494,13 +5494,13 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>9.632740248160875</v>
+        <v>6.882041544114295</v>
       </c>
       <c r="G158" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H158" t="n">
-        <v>9.666128992849915</v>
+        <v>6.905895891074359</v>
       </c>
     </row>
     <row r="159">
@@ -5526,13 +5526,13 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>1.138313833293929</v>
+        <v>0.9888797381544567</v>
       </c>
       <c r="G159" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H159" t="n">
-        <v>1.142259426030442</v>
+        <v>0.9923073664569751</v>
       </c>
     </row>
     <row r="160">
@@ -5558,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>1.140145507366366</v>
+        <v>0.9982965626880553</v>
       </c>
       <c r="G160" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H160" t="n">
-        <v>1.144097449002193</v>
+        <v>1.001756831334031</v>
       </c>
     </row>
     <row r="161">
@@ -5590,13 +5590,13 @@
         <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>1.292977749844402</v>
+        <v>2.708424399561696</v>
       </c>
       <c r="G161" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H161" t="n">
-        <v>1.297459434480963</v>
+        <v>2.71781226723557</v>
       </c>
     </row>
     <row r="162">
@@ -5622,13 +5622,13 @@
         <v>13</v>
       </c>
       <c r="F162" t="n">
-        <v>1.897326739058874</v>
+        <v>12.59746298611261</v>
       </c>
       <c r="G162" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H162" t="n">
-        <v>1.903903201877356</v>
+        <v>12.64112797286996</v>
       </c>
     </row>
     <row r="163">
@@ -5654,13 +5654,13 @@
         <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9648342373493056</v>
+        <v>3.96553060401543</v>
       </c>
       <c r="G163" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H163" t="n">
-        <v>0.9681785197848516</v>
+        <v>3.979275819341809</v>
       </c>
     </row>
     <row r="164">
@@ -5686,13 +5686,13 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>6.434347051342489</v>
+        <v>6.774846106979112</v>
       </c>
       <c r="G164" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H164" t="n">
-        <v>6.456649611715066</v>
+        <v>6.798328896003414</v>
       </c>
     </row>
     <row r="165">
@@ -5718,13 +5718,13 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>1.093884015979643</v>
+        <v>1.058580499061904</v>
       </c>
       <c r="G165" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H165" t="n">
-        <v>1.097675607280565</v>
+        <v>1.062249722263757</v>
       </c>
     </row>
     <row r="166">
@@ -5750,13 +5750,13 @@
         <v>4</v>
       </c>
       <c r="F166" t="n">
-        <v>2.237139105130465</v>
+        <v>4.05761836252023</v>
       </c>
       <c r="G166" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H166" t="n">
-        <v>2.244893416415806</v>
+        <v>4.071682769953786</v>
       </c>
     </row>
     <row r="167">
@@ -5782,13 +5782,13 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8783085252954086</v>
+        <v>1.071648828445659</v>
       </c>
       <c r="G167" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H167" t="n">
-        <v>0.8813528946393131</v>
+        <v>1.075363348738689</v>
       </c>
     </row>
     <row r="168">
@@ -5814,13 +5814,13 @@
         <v>3</v>
       </c>
       <c r="F168" t="n">
-        <v>1.014431826164783</v>
+        <v>2.953040157382479</v>
       </c>
       <c r="G168" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H168" t="n">
-        <v>1.017948022426248</v>
+        <v>2.963275905604814</v>
       </c>
     </row>
     <row r="169">
@@ -5846,13 +5846,13 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>1.066860465247792</v>
+        <v>1.016343475831471</v>
       </c>
       <c r="G169" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H169" t="n">
-        <v>1.07055838824533</v>
+        <v>1.019866298201501</v>
       </c>
     </row>
     <row r="170">
@@ -5878,13 +5878,13 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>1.065257957242229</v>
+        <v>0.9823794554895401</v>
       </c>
       <c r="G170" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H170" t="n">
-        <v>1.068950325669699</v>
+        <v>0.9857845526874388</v>
       </c>
     </row>
     <row r="171">
@@ -5910,13 +5910,13 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>1.520948306663911</v>
+        <v>1.007787822183047</v>
       </c>
       <c r="G171" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H171" t="n">
-        <v>1.526220176701736</v>
+        <v>1.011280989176937</v>
       </c>
     </row>
     <row r="172">
@@ -5942,13 +5942,13 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.01724321245907634</v>
+        <v>0.001905236587248263</v>
       </c>
       <c r="G172" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H172" t="n">
-        <v>0.01730298041747477</v>
+        <v>0.001911840466969404</v>
       </c>
     </row>
     <row r="173">
@@ -5974,13 +5974,13 @@
         <v>3</v>
       </c>
       <c r="F173" t="n">
-        <v>1.591820040562231</v>
+        <v>2.907018497504901</v>
       </c>
       <c r="G173" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H173" t="n">
-        <v>1.597337564294419</v>
+        <v>2.917094726689846</v>
       </c>
     </row>
     <row r="174">
@@ -6006,13 +6006,13 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.01084652905122283</v>
+        <v>0.01524283547099439</v>
       </c>
       <c r="G174" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H174" t="n">
-        <v>0.01088412499795489</v>
+        <v>0.01529566977657792</v>
       </c>
     </row>
     <row r="175">
@@ -6038,13 +6038,13 @@
         <v>6</v>
       </c>
       <c r="F175" t="n">
-        <v>6.989761259740315</v>
+        <v>6.093403277400795</v>
       </c>
       <c r="G175" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H175" t="n">
-        <v>7.013988981876119</v>
+        <v>6.11452406765104</v>
       </c>
     </row>
     <row r="176">
@@ -6070,13 +6070,13 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>1.009329218882155</v>
+        <v>1.011476208102875</v>
       </c>
       <c r="G176" t="n">
         <v>1.003466173054486</v>
       </c>
       <c r="H176" t="n">
-        <v>1.01282772862375</v>
+        <v>1.014982159680655</v>
       </c>
     </row>
     <row r="177">
@@ -6102,13 +6102,13 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>1.036005455484871</v>
+        <v>0.94353400462895</v>
       </c>
       <c r="G177" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H177" t="n">
-        <v>1.063836045826537</v>
+        <v>0.9688805008440403</v>
       </c>
     </row>
     <row r="178">
@@ -6134,13 +6134,13 @@
         <v>7</v>
       </c>
       <c r="F178" t="n">
-        <v>9.374696494659675</v>
+        <v>7.178082688092194</v>
       </c>
       <c r="G178" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H178" t="n">
-        <v>9.626532367085868</v>
+        <v>7.370910127053318</v>
       </c>
     </row>
     <row r="179">
@@ -6166,13 +6166,13 @@
         <v>8</v>
       </c>
       <c r="F179" t="n">
-        <v>1.141988892071016</v>
+        <v>7.370595865601014</v>
       </c>
       <c r="G179" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H179" t="n">
-        <v>1.172666553913141</v>
+        <v>7.568594855879996</v>
       </c>
     </row>
     <row r="180">
@@ -6198,13 +6198,13 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.01267562652468443</v>
+        <v>-0.0006699193077283337</v>
       </c>
       <c r="G180" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H180" t="n">
-        <v>0.01301613647785582</v>
+        <v>-0.0006879155930921343</v>
       </c>
     </row>
     <row r="181">
@@ -6230,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.002675361914127368</v>
+        <v>-0.01385847587577228</v>
       </c>
       <c r="G181" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H181" t="n">
-        <v>0.002747231131662451</v>
+        <v>-0.01423076114011771</v>
       </c>
     </row>
     <row r="182">
@@ -6262,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.009269842071425222</v>
+        <v>0.002603935877386449</v>
       </c>
       <c r="G182" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H182" t="n">
-        <v>0.009518861201446151</v>
+        <v>0.002673886351388145</v>
       </c>
     </row>
     <row r="183">
@@ -6294,13 +6294,13 @@
         <v>2</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9485451875079219</v>
+        <v>1.981881147819228</v>
       </c>
       <c r="G183" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H183" t="n">
-        <v>0.9740263009464</v>
+        <v>2.035121139982217</v>
       </c>
     </row>
     <row r="184">
@@ -6326,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.009504851007853143</v>
+        <v>0.00260318062825301</v>
       </c>
       <c r="G184" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H184" t="n">
-        <v>0.009410021050179348</v>
+        <v>0.002577208678919926</v>
       </c>
     </row>
     <row r="185">
@@ -6358,13 +6358,13 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>1.084432887635901</v>
+        <v>1.048761380820296</v>
       </c>
       <c r="G185" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H185" t="n">
-        <v>1.073613493965277</v>
+        <v>1.03829788199523</v>
       </c>
     </row>
     <row r="186">
@@ -6390,13 +6390,13 @@
         <v>2</v>
       </c>
       <c r="F186" t="n">
-        <v>1.166853493991591</v>
+        <v>1.974970598745125</v>
       </c>
       <c r="G186" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H186" t="n">
-        <v>1.155211789418282</v>
+        <v>1.955266304787098</v>
       </c>
     </row>
     <row r="187">
@@ -6422,13 +6422,13 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.01427249643439972</v>
+        <v>0.003492008474779255</v>
       </c>
       <c r="G187" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H187" t="n">
-        <v>0.0141300996486263</v>
+        <v>0.003457168684488355</v>
       </c>
     </row>
     <row r="188">
@@ -6454,13 +6454,13 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.009435330606174259</v>
+        <v>0.00260318062825301</v>
       </c>
       <c r="G188" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H188" t="n">
-        <v>0.009341194253980783</v>
+        <v>0.002577208678919926</v>
       </c>
     </row>
     <row r="189">
@@ -6486,13 +6486,13 @@
         <v>2</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9706263245779867</v>
+        <v>1.912027867958213</v>
       </c>
       <c r="G189" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H189" t="n">
-        <v>0.9609423796954469</v>
+        <v>1.892951554017071</v>
       </c>
     </row>
     <row r="190">
@@ -6518,13 +6518,13 @@
         <v>2</v>
       </c>
       <c r="F190" t="n">
-        <v>1.07656942001805</v>
+        <v>1.886080847821109</v>
       </c>
       <c r="G190" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H190" t="n">
-        <v>1.0658284802128</v>
+        <v>1.867263407461397</v>
       </c>
     </row>
     <row r="191">
@@ -6550,13 +6550,13 @@
         <v>2</v>
       </c>
       <c r="F191" t="n">
-        <v>1.056034604932442</v>
+        <v>1.932947394300949</v>
       </c>
       <c r="G191" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H191" t="n">
-        <v>1.045498541105133</v>
+        <v>1.913662366115259</v>
       </c>
     </row>
     <row r="192">
@@ -6582,13 +6582,13 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>1.398453792389188</v>
+        <v>1.000774948562256</v>
       </c>
       <c r="G192" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H192" t="n">
-        <v>1.384501410197036</v>
+        <v>0.9907902106705481</v>
       </c>
     </row>
     <row r="193">
@@ -6614,13 +6614,13 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>1.004987308668463</v>
+        <v>1.019690760810946</v>
       </c>
       <c r="G193" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9949605440337531</v>
+        <v>1.00951729974268</v>
       </c>
     </row>
     <row r="194">
@@ -6646,13 +6646,13 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.01275702339061267</v>
+        <v>-0.004478784821705765</v>
       </c>
       <c r="G194" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H194" t="n">
-        <v>0.01262974648883106</v>
+        <v>-0.004434099957658819</v>
       </c>
     </row>
     <row r="195">
@@ -6678,13 +6678,13 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.01708489668293972</v>
+        <v>0.002227581449420625</v>
       </c>
       <c r="G195" t="n">
         <v>0.9900229937749214</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01691444056237921</v>
+        <v>0.002205356855432886</v>
       </c>
     </row>
     <row r="196">
@@ -6710,13 +6710,13 @@
         <v>2</v>
       </c>
       <c r="F196" t="n">
-        <v>1.120580090270238</v>
+        <v>1.957080640175713</v>
       </c>
       <c r="G196" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H196" t="n">
-        <v>1.174785992276303</v>
+        <v>2.051750643971469</v>
       </c>
     </row>
     <row r="197">
@@ -6742,13 +6742,13 @@
         <v>15</v>
       </c>
       <c r="F197" t="n">
-        <v>29.11101660122215</v>
+        <v>13.32921862316847</v>
       </c>
       <c r="G197" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H197" t="n">
-        <v>30.51920591931206</v>
+        <v>13.97399388267772</v>
       </c>
     </row>
     <row r="198">
@@ -6774,13 +6774,13 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>1.229600760218369</v>
+        <v>0.9598965612354601</v>
       </c>
       <c r="G198" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H198" t="n">
-        <v>1.289080327001414</v>
+        <v>1.006329707233744</v>
       </c>
     </row>
     <row r="199">
@@ -6806,13 +6806,13 @@
         <v>15</v>
       </c>
       <c r="F199" t="n">
-        <v>30.81205320479308</v>
+        <v>14.30825458641369</v>
       </c>
       <c r="G199" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H199" t="n">
-        <v>32.30252688991977</v>
+        <v>15.00038882360323</v>
       </c>
     </row>
     <row r="200">
@@ -6838,13 +6838,13 @@
         <v>10</v>
       </c>
       <c r="F200" t="n">
-        <v>18.40251165524298</v>
+        <v>9.119775305382761</v>
       </c>
       <c r="G200" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H200" t="n">
-        <v>19.29269768666622</v>
+        <v>9.560926857880622</v>
       </c>
     </row>
     <row r="201">
@@ -6870,13 +6870,13 @@
         <v>3</v>
       </c>
       <c r="F201" t="n">
-        <v>2.23302390029944</v>
+        <v>2.920679845199115</v>
       </c>
       <c r="G201" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H201" t="n">
-        <v>2.341042127437173</v>
+        <v>3.06196210324974</v>
       </c>
     </row>
     <row r="202">
@@ -6902,13 +6902,13 @@
         <v>14</v>
       </c>
       <c r="F202" t="n">
-        <v>30.0856877866234</v>
+        <v>12.36362500113007</v>
       </c>
       <c r="G202" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H202" t="n">
-        <v>31.54102494467828</v>
+        <v>12.96169153030549</v>
       </c>
     </row>
     <row r="203">
@@ -6934,13 +6934,13 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>12.1873796471775</v>
+        <v>8.214416767776179</v>
       </c>
       <c r="G203" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H203" t="n">
-        <v>12.77692064705935</v>
+        <v>8.611773346049555</v>
       </c>
     </row>
     <row r="204">
@@ -6966,13 +6966,13 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>1.013413920347714</v>
+        <v>1.014388884024805</v>
       </c>
       <c r="G204" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H204" t="n">
-        <v>1.003516390736565</v>
+        <v>1.004481832409202</v>
       </c>
     </row>
     <row r="205">
@@ -6998,13 +6998,13 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>1.179251482821811</v>
+        <v>0.9513196697252286</v>
       </c>
       <c r="G205" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H205" t="n">
-        <v>1.1677342969653</v>
+        <v>0.9420285849949701</v>
       </c>
     </row>
     <row r="206">
@@ -7030,13 +7030,13 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.02183308888405588</v>
+        <v>-0.004722104772165613</v>
       </c>
       <c r="G206" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H206" t="n">
-        <v>0.0216198555354764</v>
+        <v>-0.004675986230796631</v>
       </c>
     </row>
     <row r="207">
@@ -7062,13 +7062,13 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>1.16996437538572</v>
+        <v>1.021819873746196</v>
       </c>
       <c r="G207" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H207" t="n">
-        <v>1.158537892270709</v>
+        <v>1.011840247204068</v>
       </c>
     </row>
     <row r="208">
@@ -7094,13 +7094,13 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>1.104274657751142</v>
+        <v>0.9824889077582285</v>
       </c>
       <c r="G208" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H208" t="n">
-        <v>1.093489734725628</v>
+        <v>0.9728934079709094</v>
       </c>
     </row>
     <row r="209">
@@ -7126,13 +7126,13 @@
         <v>3</v>
       </c>
       <c r="F209" t="n">
-        <v>1.152274087719622</v>
+        <v>2.959012977817919</v>
       </c>
       <c r="G209" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H209" t="n">
-        <v>1.141020377192879</v>
+        <v>2.930113711703952</v>
       </c>
     </row>
     <row r="210">
@@ -7158,13 +7158,13 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.007333737480733954</v>
+        <v>0.01256393421094297</v>
       </c>
       <c r="G210" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H210" t="n">
-        <v>0.007262112370383138</v>
+        <v>0.01244122826780508</v>
       </c>
     </row>
     <row r="211">
@@ -7190,13 +7190,13 @@
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>1.134272676296152</v>
+        <v>1.01543781941971</v>
       </c>
       <c r="G211" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H211" t="n">
-        <v>1.123194776954779</v>
+        <v>1.005520523353223</v>
       </c>
     </row>
     <row r="212">
@@ -7222,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.007534129358809785</v>
+        <v>0.002543946793934722</v>
       </c>
       <c r="G212" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H212" t="n">
-        <v>0.00746054711672112</v>
+        <v>0.00251910128094481</v>
       </c>
     </row>
     <row r="213">
@@ -7254,13 +7254,13 @@
         <v>2</v>
       </c>
       <c r="F213" t="n">
-        <v>0.996933811162912</v>
+        <v>1.854517991067745</v>
       </c>
       <c r="G213" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H213" t="n">
-        <v>0.9871972349049549</v>
+        <v>1.836405799827364</v>
       </c>
     </row>
     <row r="214">
@@ -7286,13 +7286,13 @@
         <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>1.117244340013383</v>
+        <v>1.000308934077908</v>
       </c>
       <c r="G214" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H214" t="n">
-        <v>1.106332748297357</v>
+        <v>0.990539394606873</v>
       </c>
     </row>
     <row r="215">
@@ -7318,13 +7318,13 @@
         <v>2</v>
       </c>
       <c r="F215" t="n">
-        <v>0.9449259411431752</v>
+        <v>2.032145029997037</v>
       </c>
       <c r="G215" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H215" t="n">
-        <v>0.9356973009054343</v>
+        <v>2.012298040327066</v>
       </c>
     </row>
     <row r="216">
@@ -7350,13 +7350,13 @@
         <v>5</v>
       </c>
       <c r="F216" t="n">
-        <v>1.298136103145839</v>
+        <v>4.881539354765311</v>
       </c>
       <c r="G216" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H216" t="n">
-        <v>1.285457827998622</v>
+        <v>4.833863691996438</v>
       </c>
     </row>
     <row r="217">
@@ -7382,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.05182406406170494</v>
+        <v>0.0247441634748779</v>
       </c>
       <c r="G217" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.05131792318646925</v>
+        <v>0.02450249905150814</v>
       </c>
     </row>
     <row r="218">
@@ -7414,13 +7414,13 @@
         <v>1</v>
       </c>
       <c r="F218" t="n">
-        <v>1.284114081097631</v>
+        <v>1.228714165099606</v>
       </c>
       <c r="G218" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H218" t="n">
-        <v>1.271572752340872</v>
+        <v>1.216713900855615</v>
       </c>
     </row>
     <row r="219">
@@ -7446,13 +7446,13 @@
         <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>1.228960007082568</v>
+        <v>0.9863759097415941</v>
       </c>
       <c r="G219" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H219" t="n">
-        <v>1.216957341817378</v>
+        <v>0.9767424474628817</v>
       </c>
     </row>
     <row r="220">
@@ -7478,13 +7478,13 @@
         <v>1</v>
       </c>
       <c r="F220" t="n">
-        <v>0.980146542018001</v>
+        <v>1.035116584834595</v>
       </c>
       <c r="G220" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H220" t="n">
-        <v>0.9705739189978237</v>
+        <v>1.025007095667645</v>
       </c>
     </row>
     <row r="221">
@@ -7510,13 +7510,13 @@
         <v>4</v>
       </c>
       <c r="F221" t="n">
-        <v>2.22260411343362</v>
+        <v>4.039960893302349</v>
       </c>
       <c r="G221" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H221" t="n">
-        <v>2.200897000885745</v>
+        <v>4.000504525310458</v>
       </c>
     </row>
     <row r="222">
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.0205066724015952</v>
+        <v>0.01843721723734974</v>
       </c>
       <c r="G222" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.02030639352911703</v>
+        <v>0.01825714974479817</v>
       </c>
     </row>
     <row r="223">
@@ -7574,13 +7574,13 @@
         <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>1.196884287852468</v>
+        <v>1.044291717500828</v>
       </c>
       <c r="G223" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H223" t="n">
-        <v>1.185194890813128</v>
+        <v>1.034092619196459</v>
       </c>
     </row>
     <row r="224">
@@ -7606,13 +7606,13 @@
         <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>0.9935035312499737</v>
+        <v>1.007901064654492</v>
       </c>
       <c r="G224" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H224" t="n">
-        <v>0.9838004568971426</v>
+        <v>0.9980573764711843</v>
       </c>
     </row>
     <row r="225">
@@ -7638,13 +7638,13 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0.006514487141706973</v>
+        <v>0.001283175526528674</v>
       </c>
       <c r="G225" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H225" t="n">
-        <v>0.006450863258028354</v>
+        <v>0.001270643364186004</v>
       </c>
     </row>
     <row r="226">
@@ -7670,13 +7670,13 @@
         <v>2</v>
       </c>
       <c r="F226" t="n">
-        <v>1.102352981911411</v>
+        <v>1.876539911097135</v>
       </c>
       <c r="G226" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H226" t="n">
-        <v>1.091586826975762</v>
+        <v>1.858212642284591</v>
       </c>
     </row>
     <row r="227">
@@ -7702,13 +7702,13 @@
         <v>1</v>
       </c>
       <c r="F227" t="n">
-        <v>1.207034728631737</v>
+        <v>1.17080267970612</v>
       </c>
       <c r="G227" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H227" t="n">
-        <v>1.195246197086582</v>
+        <v>1.159368009273304</v>
       </c>
     </row>
     <row r="228">
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.0010759104784581</v>
+        <v>0.008523528106111143</v>
       </c>
       <c r="G228" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.001065402574821024</v>
+        <v>0.008440282879133452</v>
       </c>
     </row>
     <row r="229">
@@ -7766,13 +7766,13 @@
         <v>2</v>
       </c>
       <c r="F229" t="n">
-        <v>1.183494848181614</v>
+        <v>1.946056431071599</v>
       </c>
       <c r="G229" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H229" t="n">
-        <v>1.171936219402861</v>
+        <v>1.927050227619322</v>
       </c>
     </row>
     <row r="230">
@@ -7798,13 +7798,13 @@
         <v>3</v>
       </c>
       <c r="F230" t="n">
-        <v>1.162190954201485</v>
+        <v>2.863946964443866</v>
       </c>
       <c r="G230" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H230" t="n">
-        <v>1.150840390377503</v>
+        <v>2.835976162665637</v>
       </c>
     </row>
     <row r="231">
@@ -7830,13 +7830,13 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>0.005012739077129833</v>
+        <v>-0.0005837669388193692</v>
       </c>
       <c r="G231" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H231" t="n">
-        <v>0.004963782049352048</v>
+        <v>-0.0005780655660170377</v>
       </c>
     </row>
     <row r="232">
@@ -7862,13 +7862,13 @@
         <v>1</v>
       </c>
       <c r="F232" t="n">
-        <v>0.9921616977602721</v>
+        <v>1.033314192082534</v>
       </c>
       <c r="G232" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H232" t="n">
-        <v>0.9824717284540867</v>
+        <v>1.023222306024517</v>
       </c>
     </row>
     <row r="233">
@@ -7894,13 +7894,13 @@
         <v>6</v>
       </c>
       <c r="F233" t="n">
-        <v>8.055762657978782</v>
+        <v>6.060044745933754</v>
       </c>
       <c r="G233" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H233" t="n">
-        <v>7.977085872662494</v>
+        <v>6.000859184029109</v>
       </c>
     </row>
     <row r="234">
@@ -7926,13 +7926,13 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>0.05790646688411593</v>
+        <v>0.001939318602378468</v>
       </c>
       <c r="G234" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H234" t="n">
-        <v>0.05734092208632401</v>
+        <v>0.001920378204080103</v>
       </c>
     </row>
     <row r="235">
@@ -7958,13 +7958,13 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.04038087495916767</v>
+        <v>-0.02222382704627479</v>
       </c>
       <c r="G235" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H235" t="n">
-        <v>0.03998649424502143</v>
+        <v>-0.02200677754473638</v>
       </c>
     </row>
     <row r="236">
@@ -7990,13 +7990,13 @@
         <v>3</v>
       </c>
       <c r="F236" t="n">
-        <v>2.239230102603409</v>
+        <v>2.927100035932142</v>
       </c>
       <c r="G236" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H236" t="n">
-        <v>2.217360611962221</v>
+        <v>2.898512448275468</v>
       </c>
     </row>
     <row r="237">
@@ -8022,13 +8022,13 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>0.00534740058116781</v>
+        <v>0.0008867927079918746</v>
       </c>
       <c r="G237" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H237" t="n">
-        <v>0.005295175074361444</v>
+        <v>0.0008781318272697219</v>
       </c>
     </row>
     <row r="238">
@@ -8054,13 +8054,13 @@
         <v>1</v>
       </c>
       <c r="F238" t="n">
-        <v>1.091232579447856</v>
+        <v>1.13448261032188</v>
       </c>
       <c r="G238" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H238" t="n">
-        <v>1.080575032170402</v>
+        <v>1.123402660655172</v>
       </c>
     </row>
     <row r="239">
@@ -8086,13 +8086,13 @@
         <v>5</v>
       </c>
       <c r="F239" t="n">
-        <v>1.390590464884306</v>
+        <v>4.64893106794502</v>
       </c>
       <c r="G239" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H239" t="n">
-        <v>1.377009232155184</v>
+        <v>4.603527179187117</v>
       </c>
     </row>
     <row r="240">
@@ -8118,13 +8118,13 @@
         <v>3</v>
       </c>
       <c r="F240" t="n">
-        <v>1.235521426338647</v>
+        <v>3.170977428424882</v>
       </c>
       <c r="G240" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H240" t="n">
-        <v>1.223454678826239</v>
+        <v>3.140008006785842</v>
       </c>
     </row>
     <row r="241">
@@ -8150,13 +8150,13 @@
         <v>2</v>
       </c>
       <c r="F241" t="n">
-        <v>1.470546761030388</v>
+        <v>1.919532922079704</v>
       </c>
       <c r="G241" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H241" t="n">
-        <v>1.45618463335517</v>
+        <v>1.900785761068396</v>
       </c>
     </row>
     <row r="242">
@@ -8182,13 +8182,13 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>0.007587223882202462</v>
+        <v>0.001218277547225261</v>
       </c>
       <c r="G242" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H242" t="n">
-        <v>0.007546904504261064</v>
+        <v>0.001211803480606597</v>
       </c>
     </row>
     <row r="243">
@@ -8214,13 +8214,13 @@
         <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>1.50968207847433</v>
+        <v>1.002937513559657</v>
       </c>
       <c r="G243" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H243" t="n">
-        <v>1.501659454753401</v>
+        <v>0.9976077885787356</v>
       </c>
     </row>
     <row r="244">
@@ -8246,13 +8246,13 @@
         <v>5</v>
       </c>
       <c r="F244" t="n">
-        <v>3.914066222451438</v>
+        <v>4.943906567449615</v>
       </c>
       <c r="G244" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H244" t="n">
-        <v>3.875839407564763</v>
+        <v>4.895621793909798</v>
       </c>
     </row>
     <row r="245">
@@ -8278,13 +8278,13 @@
         <v>3</v>
       </c>
       <c r="F245" t="n">
-        <v>1.183623374465431</v>
+        <v>2.895639451585462</v>
       </c>
       <c r="G245" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H245" t="n">
-        <v>1.172063490431866</v>
+        <v>2.867359124426106</v>
       </c>
     </row>
     <row r="246">
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>-0.08323880030401264</v>
+        <v>0.0210394621254164</v>
       </c>
       <c r="G246" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.08242584670799057</v>
+        <v>0.0208339797502409</v>
       </c>
     </row>
     <row r="247">
@@ -8342,13 +8342,13 @@
         <v>2</v>
       </c>
       <c r="F247" t="n">
-        <v>1.326073944271676</v>
+        <v>1.921189923281821</v>
       </c>
       <c r="G247" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H247" t="n">
-        <v>1.313122813577222</v>
+        <v>1.902426579131389</v>
       </c>
     </row>
     <row r="248">
@@ -8374,13 +8374,13 @@
         <v>2</v>
       </c>
       <c r="F248" t="n">
-        <v>1.121747949110207</v>
+        <v>1.891733156710009</v>
       </c>
       <c r="G248" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H248" t="n">
-        <v>1.110792372795689</v>
+        <v>1.873257502725992</v>
       </c>
     </row>
     <row r="249">
@@ -8406,13 +8406,13 @@
         <v>5</v>
       </c>
       <c r="F249" t="n">
-        <v>1.207944017622968</v>
+        <v>5.147275360194956</v>
       </c>
       <c r="G249" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H249" t="n">
-        <v>1.19614660548664</v>
+        <v>5.097004380813907</v>
       </c>
     </row>
     <row r="250">
@@ -8438,13 +8438,13 @@
         <v>1</v>
       </c>
       <c r="F250" t="n">
-        <v>1.253910471100111</v>
+        <v>1.07400809734433</v>
       </c>
       <c r="G250" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H250" t="n">
-        <v>1.241664126572709</v>
+        <v>1.063518773354749</v>
       </c>
     </row>
     <row r="251">
@@ -8470,13 +8470,13 @@
         <v>1</v>
       </c>
       <c r="F251" t="n">
-        <v>1.345876130317982</v>
+        <v>1.040539646128421</v>
       </c>
       <c r="G251" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H251" t="n">
-        <v>1.33273160113272</v>
+        <v>1.03037719251263</v>
       </c>
     </row>
     <row r="252">
@@ -8502,13 +8502,13 @@
         <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>1.27074322674813</v>
+        <v>1.800780495164639</v>
       </c>
       <c r="G252" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H252" t="n">
-        <v>1.258332484738003</v>
+        <v>1.783193132374165</v>
       </c>
     </row>
     <row r="253">
@@ -8534,13 +8534,13 @@
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>1.5265358470559</v>
+        <v>8.701804491605413</v>
       </c>
       <c r="G253" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H253" t="n">
-        <v>1.511626900725725</v>
+        <v>8.616818124340451</v>
       </c>
     </row>
     <row r="254">
@@ -8566,13 +8566,13 @@
         <v>1</v>
       </c>
       <c r="F254" t="n">
-        <v>1.536735834143941</v>
+        <v>1.113138819900835</v>
       </c>
       <c r="G254" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H254" t="n">
-        <v>1.521727269412825</v>
+        <v>1.102267324838375</v>
       </c>
     </row>
     <row r="255">
@@ -8598,13 +8598,13 @@
         <v>4</v>
       </c>
       <c r="F255" t="n">
-        <v>1.682195744011681</v>
+        <v>3.949679807221828</v>
       </c>
       <c r="G255" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H255" t="n">
-        <v>1.665766541832978</v>
+        <v>3.911105171466753</v>
       </c>
     </row>
     <row r="256">
@@ -8630,13 +8630,13 @@
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>0.006907183613414495</v>
+        <v>0.001130807390649364</v>
       </c>
       <c r="G256" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H256" t="n">
-        <v>0.006904250403297388</v>
+        <v>0.001130327181078518</v>
       </c>
     </row>
     <row r="257">
@@ -8662,13 +8662,13 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>-0.0003187469646744673</v>
+        <v>0.001192573509722931</v>
       </c>
       <c r="G257" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.0003186116053335393</v>
+        <v>0.001192067070502563</v>
       </c>
     </row>
     <row r="258">
@@ -8694,13 +8694,13 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>0.01789571879924545</v>
+        <v>0.002274526527842379</v>
       </c>
       <c r="G258" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H258" t="n">
-        <v>0.01788811918898854</v>
+        <v>0.002273560625588074</v>
       </c>
     </row>
     <row r="259">
@@ -8726,13 +8726,13 @@
         <v>3</v>
       </c>
       <c r="F259" t="n">
-        <v>2.285569030722733</v>
+        <v>3.044233622695088</v>
       </c>
       <c r="G259" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H259" t="n">
-        <v>2.284598439150324</v>
+        <v>3.04294085601033</v>
       </c>
     </row>
     <row r="260">
@@ -8758,13 +8758,13 @@
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>0.009148225407566445</v>
+        <v>0.001015659197432446</v>
       </c>
       <c r="G260" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H260" t="n">
-        <v>0.009144340514848821</v>
+        <v>0.001015227886785419</v>
       </c>
     </row>
     <row r="261">
@@ -8790,13 +8790,13 @@
         <v>2</v>
       </c>
       <c r="F261" t="n">
-        <v>1.172632058671249</v>
+        <v>1.997680125804116</v>
       </c>
       <c r="G261" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H261" t="n">
-        <v>1.172134087803433</v>
+        <v>1.996831789364301</v>
       </c>
     </row>
     <row r="262">
@@ -8822,13 +8822,13 @@
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>0.006146445563116846</v>
+        <v>0.001187077937915</v>
       </c>
       <c r="G262" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H262" t="n">
-        <v>0.006143835408628558</v>
+        <v>0.001186573832448551</v>
       </c>
     </row>
     <row r="263">
@@ -8854,13 +8854,13 @@
         <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>0.01567759827796724</v>
+        <v>0.001917943999025397</v>
       </c>
       <c r="G263" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H263" t="n">
-        <v>0.01567094061654478</v>
+        <v>0.001917129523392947</v>
       </c>
     </row>
     <row r="264">
@@ -8886,13 +8886,13 @@
         <v>1</v>
       </c>
       <c r="F264" t="n">
-        <v>1.188038340849306</v>
+        <v>1.183778891982774</v>
       </c>
       <c r="G264" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H264" t="n">
-        <v>1.187533827537379</v>
+        <v>1.18327618749181</v>
       </c>
     </row>
     <row r="265">
@@ -8918,13 +8918,13 @@
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>0.01623542068865607</v>
+        <v>-0.002011271608661423</v>
       </c>
       <c r="G265" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H265" t="n">
-        <v>0.01622852614192259</v>
+        <v>-0.002010417500451628</v>
       </c>
     </row>
     <row r="266">
@@ -8950,13 +8950,13 @@
         <v>3</v>
       </c>
       <c r="F266" t="n">
-        <v>2.273400365904025</v>
+        <v>3.059512238624745</v>
       </c>
       <c r="G266" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H266" t="n">
-        <v>2.272434941886549</v>
+        <v>3.058212983710728</v>
       </c>
     </row>
     <row r="267">
@@ -8982,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>0.00973447966151064</v>
+        <v>0.001164600692312345</v>
       </c>
       <c r="G267" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H267" t="n">
-        <v>0.009730345809592695</v>
+        <v>0.00116410613205099</v>
       </c>
     </row>
     <row r="268">
@@ -9014,13 +9014,13 @@
         <v>2</v>
       </c>
       <c r="F268" t="n">
-        <v>1.020398251643633</v>
+        <v>1.938618966393906</v>
       </c>
       <c r="G268" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H268" t="n">
-        <v>1.019964928506054</v>
+        <v>1.937795710913279</v>
       </c>
     </row>
     <row r="269">
@@ -9046,13 +9046,13 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>-0.003503814422105835</v>
+        <v>-0.01323240567574473</v>
       </c>
       <c r="G269" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.003502326489471262</v>
+        <v>-0.01322678639176821</v>
       </c>
     </row>
     <row r="270">
@@ -9078,13 +9078,13 @@
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.01679062517407758</v>
+        <v>-0.03183111635333816</v>
       </c>
       <c r="G270" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.0167834948537633</v>
+        <v>-0.03181759892601148</v>
       </c>
     </row>
     <row r="271">
@@ -9110,13 +9110,13 @@
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>0.006544144402578722</v>
+        <v>0.001139875369027768</v>
       </c>
       <c r="G271" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H271" t="n">
-        <v>0.006481524733321934</v>
+        <v>0.001128968119093865</v>
       </c>
     </row>
     <row r="272">
@@ -9142,13 +9142,13 @@
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>0.006312004772424783</v>
+        <v>0.00304671901583832</v>
       </c>
       <c r="G272" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H272" t="n">
-        <v>0.006251606402999934</v>
+        <v>0.003017565542847261</v>
       </c>
     </row>
     <row r="273">
@@ -9174,13 +9174,13 @@
         <v>1</v>
       </c>
       <c r="F273" t="n">
-        <v>0.889811036372496</v>
+        <v>1.005239864765453</v>
       </c>
       <c r="G273" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H273" t="n">
-        <v>0.881296604328984</v>
+        <v>0.9956209162852599</v>
       </c>
     </row>
     <row r="274">
@@ -9206,13 +9206,13 @@
         <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>0.002379969142673852</v>
+        <v>-0.0005001618658266573</v>
       </c>
       <c r="G274" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H274" t="n">
-        <v>0.002357195672012528</v>
+        <v>-0.0004953759123564707</v>
       </c>
     </row>
     <row r="275">
@@ -9238,13 +9238,13 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>-0.007818491905325943</v>
+        <v>0.001059686582507881</v>
       </c>
       <c r="G275" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.00786808584217292</v>
+        <v>0.001066408342930077</v>
       </c>
     </row>
     <row r="276">
@@ -9270,13 +9270,13 @@
         <v>1</v>
       </c>
       <c r="F276" t="n">
-        <v>1.086698199656583</v>
+        <v>1.046223332135123</v>
       </c>
       <c r="G276" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H276" t="n">
-        <v>1.093591299059651</v>
+        <v>1.052859693020322</v>
       </c>
     </row>
     <row r="277">
@@ -9302,13 +9302,13 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>-0.002541855283017562</v>
+        <v>1.074370818036991</v>
       </c>
       <c r="G277" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.002664812633037605</v>
+        <v>1.126341435564779</v>
       </c>
     </row>
     <row r="278">
@@ -9334,13 +9334,13 @@
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>0.1205899953663186</v>
+        <v>1.709326514500402</v>
       </c>
       <c r="G278" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H278" t="n">
-        <v>0.1264233039611215</v>
+        <v>1.792011890000008</v>
       </c>
     </row>
     <row r="279">
@@ -9366,13 +9366,13 @@
         <v>2</v>
       </c>
       <c r="F279" t="n">
-        <v>1.111940055773578</v>
+        <v>1.978101879702922</v>
       </c>
       <c r="G279" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H279" t="n">
-        <v>1.118993268282003</v>
+        <v>1.990649294330549</v>
       </c>
     </row>
     <row r="280">
@@ -9398,13 +9398,13 @@
         <v>2</v>
       </c>
       <c r="F280" t="n">
-        <v>1.151753376009903</v>
+        <v>1.892338127219637</v>
       </c>
       <c r="G280" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H280" t="n">
-        <v>1.159059130736619</v>
+        <v>1.904341528733749</v>
       </c>
     </row>
     <row r="281">
@@ -9430,13 +9430,13 @@
         <v>2</v>
       </c>
       <c r="F281" t="n">
-        <v>0.9854481877513547</v>
+        <v>1.967653872489041</v>
       </c>
       <c r="G281" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H281" t="n">
-        <v>0.9916990422359667</v>
+        <v>1.980135013746278</v>
       </c>
     </row>
     <row r="282">
@@ -9462,13 +9462,13 @@
         <v>0</v>
       </c>
       <c r="F282" t="n">
-        <v>0.01519987978182426</v>
+        <v>-0.0006994091270364752</v>
       </c>
       <c r="G282" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H282" t="n">
-        <v>0.01529629503518891</v>
+        <v>-0.0007038455902951784</v>
       </c>
     </row>
     <row r="283">
@@ -9494,13 +9494,13 @@
         <v>3</v>
       </c>
       <c r="F283" t="n">
-        <v>2.253852957503342</v>
+        <v>3.070432467465529</v>
       </c>
       <c r="G283" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H283" t="n">
-        <v>2.268149505046053</v>
+        <v>3.089908708629207</v>
       </c>
     </row>
     <row r="284">
@@ -9526,13 +9526,13 @@
         <v>1</v>
       </c>
       <c r="F284" t="n">
-        <v>1.607857410434892</v>
+        <v>1.005009452769415</v>
       </c>
       <c r="G284" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H284" t="n">
-        <v>1.618056305546331</v>
+        <v>1.011384387467155</v>
       </c>
     </row>
     <row r="285">
@@ -9558,13 +9558,13 @@
         <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>1.487885136135692</v>
+        <v>1.015972441733745</v>
       </c>
       <c r="G285" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H285" t="n">
-        <v>1.497323028042544</v>
+        <v>1.022416916412972</v>
       </c>
     </row>
     <row r="286">
@@ -9590,13 +9590,13 @@
         <v>2</v>
       </c>
       <c r="F286" t="n">
-        <v>1.069344975512851</v>
+        <v>2.03579925393698</v>
       </c>
       <c r="G286" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H286" t="n">
-        <v>1.064926714544612</v>
+        <v>2.027387850144181</v>
       </c>
     </row>
     <row r="287">
@@ -9622,13 +9622,13 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>0.006408145015509536</v>
+        <v>0.0009663819529251328</v>
       </c>
       <c r="G287" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H287" t="n">
-        <v>0.006405423727522508</v>
+        <v>0.0009659715683921656</v>
       </c>
     </row>
     <row r="288">
@@ -9654,13 +9654,13 @@
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.001457304971909452</v>
+        <v>0.001047418530479556</v>
       </c>
       <c r="G288" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H288" t="n">
-        <v>-0.00145668611161464</v>
+        <v>0.001046973732888758</v>
       </c>
     </row>
     <row r="289">
@@ -9686,13 +9686,13 @@
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0.01926553202971743</v>
+        <v>0.6947116035396803</v>
       </c>
       <c r="G289" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H289" t="n">
-        <v>0.01920525064757529</v>
+        <v>0.6925378677930135</v>
       </c>
     </row>
     <row r="290">
@@ -9718,13 +9718,13 @@
         <v>1</v>
       </c>
       <c r="F290" t="n">
-        <v>1.511180111674431</v>
+        <v>1.025112150585528</v>
       </c>
       <c r="G290" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H290" t="n">
-        <v>1.503149527233257</v>
+        <v>1.019664587040088</v>
       </c>
     </row>
     <row r="291">
@@ -9750,13 +9750,13 @@
         <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>0.01971375182812644</v>
+        <v>0.001440354377043575</v>
       </c>
       <c r="G291" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H291" t="n">
-        <v>0.01960899068980474</v>
+        <v>0.001432700168679724</v>
       </c>
     </row>
     <row r="292">
@@ -9782,13 +9782,13 @@
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>0.03746674228174841</v>
+        <v>0.0008555046734747101</v>
       </c>
       <c r="G292" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H292" t="n">
-        <v>0.03726763971594245</v>
+        <v>0.0008509584235160961</v>
       </c>
     </row>
     <row r="293">
@@ -9814,13 +9814,13 @@
         <v>2</v>
       </c>
       <c r="F293" t="n">
-        <v>0.9855660002588716</v>
+        <v>1.967687270982841</v>
       </c>
       <c r="G293" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H293" t="n">
-        <v>0.9814938926693834</v>
+        <v>1.95955728854858</v>
       </c>
     </row>
     <row r="294">
@@ -9846,13 +9846,13 @@
         <v>4</v>
       </c>
       <c r="F294" t="n">
-        <v>1.509467648129207</v>
+        <v>3.761636906899159</v>
       </c>
       <c r="G294" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H294" t="n">
-        <v>1.503230912421583</v>
+        <v>3.746094781670143</v>
       </c>
     </row>
     <row r="295">
@@ -9878,13 +9878,13 @@
         <v>3</v>
       </c>
       <c r="F295" t="n">
-        <v>1.492504203568956</v>
+        <v>2.892334656749336</v>
       </c>
       <c r="G295" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H295" t="n">
-        <v>1.491870395540279</v>
+        <v>2.891106395600934</v>
       </c>
     </row>
     <row r="296">
@@ -9910,13 +9910,13 @@
         <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>1.033191948002848</v>
+        <v>1.009469228678186</v>
       </c>
       <c r="G296" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H296" t="n">
-        <v>1.032753191883942</v>
+        <v>1.00904054666824</v>
       </c>
     </row>
     <row r="297">
@@ -9942,13 +9942,13 @@
         <v>4</v>
       </c>
       <c r="F297" t="n">
-        <v>2.774879028856739</v>
+        <v>4.038843138106708</v>
       </c>
       <c r="G297" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H297" t="n">
-        <v>2.77370064650921</v>
+        <v>4.037127999749724</v>
       </c>
     </row>
     <row r="298">
@@ -9974,13 +9974,13 @@
         <v>1</v>
       </c>
       <c r="F298" t="n">
-        <v>1.317094202976001</v>
+        <v>1.165345222635233</v>
       </c>
       <c r="G298" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H298" t="n">
-        <v>1.316534884698455</v>
+        <v>1.164850346201035</v>
       </c>
     </row>
     <row r="299">
@@ -10006,13 +10006,13 @@
         <v>9</v>
       </c>
       <c r="F299" t="n">
-        <v>15.32699397045412</v>
+        <v>8.720618386259318</v>
       </c>
       <c r="G299" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H299" t="n">
-        <v>15.2790361783102</v>
+        <v>8.693331782980106</v>
       </c>
     </row>
     <row r="300">
@@ -10038,13 +10038,13 @@
         <v>2</v>
       </c>
       <c r="F300" t="n">
-        <v>1.044495588530829</v>
+        <v>1.962987078110503</v>
       </c>
       <c r="G300" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H300" t="n">
-        <v>1.041227387184462</v>
+        <v>1.956844939185239</v>
       </c>
     </row>
     <row r="301">
@@ -10070,13 +10070,13 @@
         <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>-0.004301674047241664</v>
+        <v>0.003717930587484158</v>
       </c>
       <c r="G301" t="n">
         <v>0.9968710242702278</v>
       </c>
       <c r="H301" t="n">
-        <v>-0.004288214213550454</v>
+        <v>0.003706297272910942</v>
       </c>
     </row>
     <row r="302">
@@ -10102,13 +10102,13 @@
         <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>-0.006256485129535727</v>
+        <v>-0.0005417535731268865</v>
       </c>
       <c r="G302" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H302" t="n">
-        <v>-0.00619661801698131</v>
+        <v>-0.0005365696365446618</v>
       </c>
     </row>
     <row r="303">
@@ -10134,13 +10134,13 @@
         <v>0</v>
       </c>
       <c r="F303" t="n">
-        <v>-0.003654184976217493</v>
+        <v>0.001895084595739391</v>
       </c>
       <c r="G303" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H303" t="n">
-        <v>-0.003634766218130033</v>
+        <v>0.001885013898837225</v>
       </c>
     </row>
     <row r="304">
@@ -10166,13 +10166,13 @@
         <v>1</v>
       </c>
       <c r="F304" t="n">
-        <v>1.059304527239576</v>
+        <v>0.9974692457420764</v>
       </c>
       <c r="G304" t="n">
         <v>0.9946858853030586</v>
       </c>
       <c r="H304" t="n">
-        <v>1.053675261482835</v>
+        <v>0.9921685797635313</v>
       </c>
     </row>
     <row r="305">
@@ -10198,13 +10198,13 @@
         <v>4</v>
       </c>
       <c r="F305" t="n">
-        <v>3.290940588517609</v>
+        <v>3.918008071856511</v>
       </c>
       <c r="G305" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H305" t="n">
-        <v>3.258799544005205</v>
+        <v>3.879742758809878</v>
       </c>
     </row>
     <row r="306">
@@ -10230,13 +10230,13 @@
         <v>2</v>
       </c>
       <c r="F306" t="n">
-        <v>0.9710273066626004</v>
+        <v>1.967509870516554</v>
       </c>
       <c r="G306" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H306" t="n">
-        <v>0.9615437468575111</v>
+        <v>1.948294141570395</v>
       </c>
     </row>
     <row r="307">
@@ -10262,13 +10262,13 @@
         <v>1</v>
       </c>
       <c r="F307" t="n">
-        <v>1.393609473693795</v>
+        <v>0.9976682969759283</v>
       </c>
       <c r="G307" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H307" t="n">
-        <v>1.379998755747934</v>
+        <v>0.9879245473459292</v>
       </c>
     </row>
     <row r="308">
@@ -10294,13 +10294,13 @@
         <v>0</v>
       </c>
       <c r="F308" t="n">
-        <v>0.01693587598180551</v>
+        <v>-0.007295895853943071</v>
       </c>
       <c r="G308" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H308" t="n">
-        <v>0.01677047137204531</v>
+        <v>-0.007224640324682642</v>
       </c>
     </row>
     <row r="309">
@@ -10326,13 +10326,13 @@
         <v>0</v>
       </c>
       <c r="F309" t="n">
-        <v>0.009034580459950509</v>
+        <v>-0.003050467393321563</v>
       </c>
       <c r="G309" t="n">
         <v>0.9902334777405137</v>
       </c>
       <c r="H309" t="n">
-        <v>0.008946344028783281</v>
+        <v>-0.003020674935622851</v>
       </c>
     </row>
     <row r="310">
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>0.01111642531919091</v>
+        <v>0.000322385249628566</v>
       </c>
       <c r="G310" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H310" t="n">
-        <v>0.0111117046091248</v>
+        <v>0.0003222483452506398</v>
       </c>
     </row>
     <row r="311">
@@ -10390,13 +10390,13 @@
         <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>-0.01044392938970911</v>
+        <v>0.004674677386525695</v>
       </c>
       <c r="G311" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H311" t="n">
-        <v>-0.01043949426230223</v>
+        <v>0.004672692234288286</v>
       </c>
     </row>
     <row r="312">
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.01239922895489834</v>
+        <v>0.000635738909885594</v>
       </c>
       <c r="G312" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H312" t="n">
-        <v>0.0123939634884144</v>
+        <v>0.0006354689364917069</v>
       </c>
     </row>
     <row r="313">
@@ -10454,13 +10454,13 @@
         <v>1</v>
       </c>
       <c r="F313" t="n">
-        <v>1.17345711990904</v>
+        <v>1.008104402489776</v>
       </c>
       <c r="G313" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H313" t="n">
-        <v>1.172958798670059</v>
+        <v>1.00767630006801</v>
       </c>
     </row>
     <row r="314">
@@ -10486,13 +10486,13 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>-0.003832478262483535</v>
+        <v>-0.005812073913834736</v>
       </c>
       <c r="G314" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H314" t="n">
-        <v>-0.003830850759199667</v>
+        <v>-0.005809605753878437</v>
       </c>
     </row>
     <row r="315">
@@ -10518,13 +10518,13 @@
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>0.01224721624134495</v>
+        <v>0.00750195657028513</v>
       </c>
       <c r="G315" t="n">
         <v>0.9995753392002769</v>
       </c>
       <c r="H315" t="n">
-        <v>0.01224201532870152</v>
+        <v>0.007498770783408504</v>
       </c>
     </row>
     <row r="316">
@@ -10550,13 +10550,13 @@
         <v>4</v>
       </c>
       <c r="F316" t="n">
-        <v>3.863940397789791</v>
+        <v>3.941727230009526</v>
       </c>
       <c r="G316" t="n">
         <v>0.990431190786054</v>
       </c>
       <c r="H316" t="n">
-        <v>3.826967089309282</v>
+        <v>3.904009594172149</v>
       </c>
     </row>
     <row r="317">
@@ -10582,13 +10582,13 @@
         <v>5</v>
       </c>
       <c r="F317" t="n">
-        <v>5.677794543044921</v>
+        <v>5.041419681873856</v>
       </c>
       <c r="G317" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H317" t="n">
-        <v>5.654335342702971</v>
+        <v>5.020589820309069</v>
       </c>
     </row>
     <row r="318">
@@ -10614,13 +10614,13 @@
         <v>0</v>
       </c>
       <c r="F318" t="n">
-        <v>-0.1059276415254858</v>
+        <v>-0.0009482649333688285</v>
       </c>
       <c r="G318" t="n">
         <v>0.9958682548013845</v>
       </c>
       <c r="H318" t="n">
-        <v>-0.1054899755012123</v>
+        <v>-0.0009443469442833664</v>
       </c>
     </row>
     <row r="319">
@@ -10646,13 +10646,13 @@
         <v>5</v>
       </c>
       <c r="F319" t="n">
-        <v>1.475071216256499</v>
+        <v>4.862641490897834</v>
       </c>
       <c r="G319" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H319" t="n">
-        <v>1.546424943218652</v>
+        <v>5.097862400527478</v>
       </c>
     </row>
     <row r="320">
@@ -10678,13 +10678,13 @@
         <v>20</v>
       </c>
       <c r="F320" t="n">
-        <v>2.733767319553806</v>
+        <v>19.24629486588267</v>
       </c>
       <c r="G320" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H320" t="n">
-        <v>2.866008044440663</v>
+        <v>20.17729728377167</v>
       </c>
     </row>
     <row r="321">
@@ -10710,13 +10710,13 @@
         <v>4</v>
       </c>
       <c r="F321" t="n">
-        <v>3.893289828540946</v>
+        <v>4.280474605207676</v>
       </c>
       <c r="G321" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H321" t="n">
-        <v>3.917985584733021</v>
+        <v>4.307626335978306</v>
       </c>
     </row>
     <row r="322">
@@ -10742,13 +10742,13 @@
         <v>10</v>
       </c>
       <c r="F322" t="n">
-        <v>6.464034209820738</v>
+        <v>10.0341015491638</v>
       </c>
       <c r="G322" t="n">
         <v>1.006343158942608</v>
       </c>
       <c r="H322" t="n">
-        <v>6.505036606224087</v>
+        <v>10.09774945013642</v>
       </c>
     </row>
     <row r="323">
@@ -10774,13 +10774,13 @@
         <v>31</v>
       </c>
       <c r="F323" t="n">
-        <v>100.0600161282227</v>
+        <v>29.5631795554129</v>
       </c>
       <c r="G323" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H323" t="n">
-        <v>104.9002265478667</v>
+        <v>30.99324138489084</v>
       </c>
     </row>
     <row r="324">
@@ -10806,13 +10806,13 @@
         <v>24</v>
       </c>
       <c r="F324" t="n">
-        <v>2.90343099351737</v>
+        <v>23.48064101281236</v>
       </c>
       <c r="G324" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H324" t="n">
-        <v>3.043878871614169</v>
+        <v>24.61647176407366</v>
       </c>
     </row>
     <row r="325">
@@ -10838,13 +10838,13 @@
         <v>31</v>
       </c>
       <c r="F325" t="n">
-        <v>3.036326119102262</v>
+        <v>28.67379028746998</v>
       </c>
       <c r="G325" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H325" t="n">
-        <v>3.183202542750679</v>
+        <v>30.06082962536347</v>
       </c>
     </row>
     <row r="326">
@@ -10870,13 +10870,13 @@
         <v>24</v>
       </c>
       <c r="F326" t="n">
-        <v>3.218661998840787</v>
+        <v>22.99645880983283</v>
       </c>
       <c r="G326" t="n">
         <v>1.048373072551193</v>
       </c>
       <c r="H326" t="n">
-        <v>3.374358569228481</v>
+        <v>24.10886818026141</v>
       </c>
     </row>
     <row r="327">
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="F327" t="n">
-        <v>-0.0813449490941633</v>
+        <v>-0.003942158299488564</v>
       </c>
       <c r="G327" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H327" t="n">
-        <v>-0.08353014796798952</v>
+        <v>-0.004048057927829534</v>
       </c>
     </row>
     <row r="328">
@@ -10934,13 +10934,13 @@
         <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>0.004918310579185566</v>
+        <v>0.003586426469648251</v>
       </c>
       <c r="G328" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H328" t="n">
-        <v>0.00505043294029643</v>
+        <v>0.003682769944809368</v>
       </c>
     </row>
     <row r="329">
@@ -10966,13 +10966,13 @@
         <v>21</v>
       </c>
       <c r="F329" t="n">
-        <v>59.28520338069278</v>
+        <v>20.42685526182011</v>
       </c>
       <c r="G329" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H329" t="n">
-        <v>60.87780330367121</v>
+        <v>20.97558928416574</v>
       </c>
     </row>
     <row r="330">
@@ -10998,13 +10998,13 @@
         <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>0.002786717689405236</v>
+        <v>0.0005305596143877831</v>
       </c>
       <c r="G330" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H330" t="n">
-        <v>0.002861578297523766</v>
+        <v>0.0005448122297593384</v>
       </c>
     </row>
     <row r="331">
@@ -11030,13 +11030,13 @@
         <v>10</v>
       </c>
       <c r="F331" t="n">
-        <v>18.29565651235978</v>
+        <v>10.16419448151036</v>
       </c>
       <c r="G331" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H331" t="n">
-        <v>18.78713936964746</v>
+        <v>10.43723892473247</v>
       </c>
     </row>
     <row r="332">
@@ -11062,13 +11062,13 @@
         <v>7</v>
       </c>
       <c r="F332" t="n">
-        <v>10.7818391184943</v>
+        <v>6.999196490327732</v>
       </c>
       <c r="G332" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H332" t="n">
-        <v>11.07147557363838</v>
+        <v>7.187218444470795</v>
       </c>
     </row>
     <row r="333">
@@ -11094,13 +11094,13 @@
         <v>3</v>
       </c>
       <c r="F333" t="n">
-        <v>1.605143838518385</v>
+        <v>2.767488945075363</v>
       </c>
       <c r="G333" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H333" t="n">
-        <v>1.64826339968744</v>
+        <v>2.841833004460105</v>
       </c>
     </row>
     <row r="334">
@@ -11126,13 +11126,13 @@
         <v>29</v>
       </c>
       <c r="F334" t="n">
-        <v>114.0225048245856</v>
+        <v>28.51268154307789</v>
       </c>
       <c r="G334" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H334" t="n">
-        <v>117.0855327311506</v>
+        <v>29.27862804979431</v>
       </c>
     </row>
     <row r="335">
@@ -11158,13 +11158,13 @@
         <v>2</v>
       </c>
       <c r="F335" t="n">
-        <v>1.215846808835853</v>
+        <v>2.023536978841432</v>
       </c>
       <c r="G335" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H335" t="n">
-        <v>1.248508542686566</v>
+        <v>2.077895986703019</v>
       </c>
     </row>
     <row r="336">
@@ -11190,13 +11190,13 @@
         <v>2</v>
       </c>
       <c r="F336" t="n">
-        <v>1.064871049328796</v>
+        <v>1.820739664781834</v>
       </c>
       <c r="G336" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H336" t="n">
-        <v>1.093477066588329</v>
+        <v>1.869650854835027</v>
       </c>
     </row>
     <row r="337">
@@ -11222,13 +11222,13 @@
         <v>1</v>
       </c>
       <c r="F337" t="n">
-        <v>1.235259175090905</v>
+        <v>0.992246198785142</v>
       </c>
       <c r="G337" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H337" t="n">
-        <v>1.268442390377788</v>
+        <v>1.018901268341258</v>
       </c>
     </row>
     <row r="338">
@@ -11254,13 +11254,13 @@
         <v>6</v>
       </c>
       <c r="F338" t="n">
-        <v>8.561635317732526</v>
+        <v>5.924214083600003</v>
       </c>
       <c r="G338" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H338" t="n">
-        <v>8.791629632840682</v>
+        <v>6.083358395422026</v>
       </c>
     </row>
     <row r="339">
@@ -11286,13 +11286,13 @@
         <v>4</v>
       </c>
       <c r="F339" t="n">
-        <v>1.234643822003884</v>
+        <v>4.000065987368211</v>
       </c>
       <c r="G339" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H339" t="n">
-        <v>1.267810506837583</v>
+        <v>4.107521210933589</v>
       </c>
     </row>
     <row r="340">
@@ -11318,13 +11318,13 @@
         <v>6</v>
       </c>
       <c r="F340" t="n">
-        <v>7.72553519083384</v>
+        <v>6.261956924180065</v>
       </c>
       <c r="G340" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H340" t="n">
-        <v>7.933069044953939</v>
+        <v>6.430174144438285</v>
       </c>
     </row>
     <row r="341">
@@ -11350,13 +11350,13 @@
         <v>5</v>
       </c>
       <c r="F341" t="n">
-        <v>5.287633928832326</v>
+        <v>5.19998661952292</v>
       </c>
       <c r="G341" t="n">
         <v>1.026863362730692</v>
       </c>
       <c r="H341" t="n">
-        <v>5.429677557049666</v>
+        <v>5.339675746277911</v>
       </c>
     </row>
   </sheetData>
